--- a/ARCHIVE/deployment/Omaha_Cal_Info_GA03FLMB_00003.xlsx
+++ b/ARCHIVE/deployment/Omaha_Cal_Info_GA03FLMB_00003.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgarzio\Desktop\cal sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lgarzio/Documents/repo/lgarzio/ooi-integration-fork/asset-management/ARCHIVE/deployment/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24576" windowHeight="9696"/>
+    <workbookView xWindow="-140" yWindow="460" windowWidth="38400" windowHeight="21060"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -22,8 +22,11 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -419,12 +422,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="30" x14ac:knownFonts="1">
     <font>
@@ -1058,9 +1062,6 @@
     <xf numFmtId="11" fontId="29" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1074,6 +1075,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="194">
     <cellStyle name="Comma 2" xfId="63"/>
@@ -1347,9 +1351,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1382,9 +1386,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1591,29 +1595,29 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" style="4" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" style="15" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="4"/>
+    <col min="11" max="11" width="11.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5" style="4" customWidth="1"/>
+    <col min="13" max="13" width="13.5" style="4" customWidth="1"/>
+    <col min="14" max="14" width="12.5" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
         <v>67</v>
       </c>
@@ -1651,7 +1655,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="13" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -1664,12 +1668,24 @@
       <c r="D2" s="26">
         <v>3</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="28"/>
+      <c r="E2" s="27">
+        <v>42674</v>
+      </c>
+      <c r="F2" s="28">
+        <v>0.94236111111111109</v>
+      </c>
       <c r="G2" s="27"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
+      <c r="H2" s="51">
+        <f>-(42+(29.761/60))</f>
+        <v>-42.496016666666669</v>
+      </c>
+      <c r="I2" s="26">
+        <f>-(42+(7.527/60))</f>
+        <v>-42.125450000000001</v>
+      </c>
+      <c r="J2" s="26">
+        <v>5165</v>
+      </c>
       <c r="K2" s="26" t="s">
         <v>95</v>
       </c>
@@ -1677,20 +1693,15 @@
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
     </row>
-    <row r="3" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E3" s="20"/>
       <c r="F3" s="21"/>
       <c r="G3" s="20"/>
     </row>
-    <row r="4" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1698,25 +1709,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L378"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A334" workbookViewId="0">
+      <selection activeCell="F371" sqref="F371"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="28.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="26.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="23" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="23" customFormat="1" ht="28" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -1745,7 +1756,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>50</v>
       </c>
@@ -1758,7 +1769,7 @@
       <c r="D2" s="17">
         <v>3</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="50" t="s">
         <v>110</v>
       </c>
       <c r="F2" s="33">
@@ -1773,9 +1784,11 @@
       <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="48"/>
-    </row>
-    <row r="3" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J2" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
         <v>50</v>
       </c>
@@ -1788,7 +1801,7 @@
       <c r="D3" s="17">
         <v>3</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="50" t="s">
         <v>110</v>
       </c>
       <c r="F3" s="33">
@@ -1804,7 +1817,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
         <v>50</v>
       </c>
@@ -1817,7 +1830,7 @@
       <c r="D4" s="17">
         <v>3</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="50" t="s">
         <v>110</v>
       </c>
       <c r="F4" s="33">
@@ -1830,7 +1843,7 @@
         <v>1.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>50</v>
       </c>
@@ -1843,7 +1856,7 @@
       <c r="D5" s="17">
         <v>3</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="50" t="s">
         <v>110</v>
       </c>
       <c r="F5" s="33">
@@ -1856,7 +1869,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
         <v>50</v>
       </c>
@@ -1869,7 +1882,7 @@
       <c r="D6" s="17">
         <v>3</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="50" t="s">
         <v>110</v>
       </c>
       <c r="F6" s="33">
@@ -1882,7 +1895,7 @@
         <v>7.8399999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
         <v>50</v>
       </c>
@@ -1895,7 +1908,7 @@
       <c r="D7" s="17">
         <v>3</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="50" t="s">
         <v>110</v>
       </c>
       <c r="F7" s="33">
@@ -1908,7 +1921,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
         <v>50</v>
       </c>
@@ -1921,7 +1934,7 @@
       <c r="D8" s="17">
         <v>3</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="50" t="s">
         <v>110</v>
       </c>
       <c r="F8" s="33">
@@ -1937,7 +1950,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
         <v>50</v>
       </c>
@@ -1950,7 +1963,7 @@
       <c r="D9" s="17">
         <v>3</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="50" t="s">
         <v>110</v>
       </c>
       <c r="F9" s="33">
@@ -1966,7 +1979,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
         <v>50</v>
       </c>
@@ -1979,7 +1992,7 @@
       <c r="D10" s="17">
         <v>3</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="50" t="s">
         <v>110</v>
       </c>
       <c r="F10" s="33">
@@ -1995,7 +2008,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
         <v>50</v>
       </c>
@@ -2008,7 +2021,7 @@
       <c r="D11" s="17">
         <v>3</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="50" t="s">
         <v>110</v>
       </c>
       <c r="F11" s="33">
@@ -2024,7 +2037,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="17"/>
       <c r="B12"/>
       <c r="C12" s="18"/>
@@ -2033,7 +2046,7 @@
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>53</v>
       </c>
@@ -2046,7 +2059,7 @@
       <c r="D13" s="17">
         <v>3</v>
       </c>
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="50" t="s">
         <v>111</v>
       </c>
       <c r="F13" s="33" t="s">
@@ -2061,9 +2074,11 @@
       <c r="I13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J13" s="48"/>
-    </row>
-    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J13" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
         <v>53</v>
       </c>
@@ -2076,7 +2091,7 @@
       <c r="D14" s="17">
         <v>3</v>
       </c>
-      <c r="E14" s="51" t="s">
+      <c r="E14" s="50" t="s">
         <v>111</v>
       </c>
       <c r="F14" s="33" t="s">
@@ -2089,7 +2104,7 @@
         <v>2284.1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="29" t="s">
         <v>53</v>
       </c>
@@ -2102,7 +2117,7 @@
       <c r="D15" s="17">
         <v>3</v>
       </c>
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="50" t="s">
         <v>111</v>
       </c>
       <c r="F15" s="33" t="s">
@@ -2115,7 +2130,7 @@
         <v>94.1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="29" t="s">
         <v>53</v>
       </c>
@@ -2128,7 +2143,7 @@
       <c r="D16" s="17">
         <v>3</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="50" t="s">
         <v>111</v>
       </c>
       <c r="F16" s="33" t="s">
@@ -2141,7 +2156,7 @@
         <v>38676.5</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="29" t="s">
         <v>53</v>
       </c>
@@ -2154,7 +2169,7 @@
       <c r="D17" s="17">
         <v>3</v>
       </c>
-      <c r="E17" s="51" t="s">
+      <c r="E17" s="50" t="s">
         <v>111</v>
       </c>
       <c r="F17" s="33" t="s">
@@ -2163,11 +2178,11 @@
       <c r="G17" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="48">
+      <c r="H17" s="47">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="29" t="s">
         <v>53</v>
       </c>
@@ -2180,7 +2195,7 @@
       <c r="D18" s="17">
         <v>3</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="50" t="s">
         <v>111</v>
       </c>
       <c r="F18" s="33" t="s">
@@ -2189,11 +2204,11 @@
       <c r="G18" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="47">
+      <c r="H18" s="46">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="29" t="s">
         <v>53</v>
       </c>
@@ -2206,7 +2221,7 @@
       <c r="D19" s="17">
         <v>3</v>
       </c>
-      <c r="E19" s="51" t="s">
+      <c r="E19" s="50" t="s">
         <v>111</v>
       </c>
       <c r="F19" s="33" t="s">
@@ -2222,7 +2237,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="17"/>
       <c r="B20"/>
       <c r="C20" s="18"/>
@@ -2232,7 +2247,7 @@
       <c r="G20" s="30"/>
       <c r="H20" s="31"/>
     </row>
-    <row r="21" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
         <v>47</v>
       </c>
@@ -2245,7 +2260,7 @@
       <c r="D21" s="17">
         <v>3</v>
       </c>
-      <c r="E21" s="51" t="s">
+      <c r="E21" s="50" t="s">
         <v>112</v>
       </c>
       <c r="F21" s="34">
@@ -2254,13 +2269,15 @@
       <c r="G21" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="49"/>
+      <c r="H21" s="48"/>
       <c r="I21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J21" s="48"/>
-    </row>
-    <row r="22" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J21" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="29" t="s">
         <v>47</v>
       </c>
@@ -2273,7 +2290,7 @@
       <c r="D22" s="17">
         <v>3</v>
       </c>
-      <c r="E22" s="51" t="s">
+      <c r="E22" s="50" t="s">
         <v>112</v>
       </c>
       <c r="F22" s="34">
@@ -2282,12 +2299,12 @@
       <c r="G22" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="47"/>
+      <c r="H22" s="46"/>
       <c r="I22" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>47</v>
       </c>
@@ -2300,7 +2317,7 @@
       <c r="D23" s="17">
         <v>3</v>
       </c>
-      <c r="E23" s="51" t="s">
+      <c r="E23" s="50" t="s">
         <v>112</v>
       </c>
       <c r="F23" s="34">
@@ -2313,7 +2330,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
       <c r="B24"/>
       <c r="C24" s="18"/>
@@ -2323,7 +2340,7 @@
       <c r="G24" s="30"/>
       <c r="H24" s="31"/>
     </row>
-    <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>51</v>
       </c>
@@ -2336,7 +2353,7 @@
       <c r="D25" s="17">
         <v>3</v>
       </c>
-      <c r="E25" s="51" t="s">
+      <c r="E25" s="50" t="s">
         <v>113</v>
       </c>
       <c r="F25" s="34">
@@ -2345,13 +2362,15 @@
       <c r="G25" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="49"/>
+      <c r="H25" s="48"/>
       <c r="I25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J25" s="48"/>
-    </row>
-    <row r="26" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J25" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="29" t="s">
         <v>51</v>
       </c>
@@ -2364,7 +2383,7 @@
       <c r="D26" s="17">
         <v>3</v>
       </c>
-      <c r="E26" s="51" t="s">
+      <c r="E26" s="50" t="s">
         <v>113</v>
       </c>
       <c r="F26" s="34">
@@ -2373,9 +2392,9 @@
       <c r="G26" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H26" s="47"/>
-    </row>
-    <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H26" s="46"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="29" t="s">
         <v>51</v>
       </c>
@@ -2388,7 +2407,7 @@
       <c r="D27" s="17">
         <v>3</v>
       </c>
-      <c r="E27" s="51" t="s">
+      <c r="E27" s="50" t="s">
         <v>113</v>
       </c>
       <c r="F27" s="34">
@@ -2397,9 +2416,9 @@
       <c r="G27" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="49"/>
-    </row>
-    <row r="28" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H27" s="48"/>
+    </row>
+    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="29" t="s">
         <v>51</v>
       </c>
@@ -2412,7 +2431,7 @@
       <c r="D28" s="17">
         <v>3</v>
       </c>
-      <c r="E28" s="51" t="s">
+      <c r="E28" s="50" t="s">
         <v>113</v>
       </c>
       <c r="F28" s="34">
@@ -2421,9 +2440,9 @@
       <c r="G28" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="47"/>
-    </row>
-    <row r="29" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H28" s="46"/>
+    </row>
+    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="29" t="s">
         <v>51</v>
       </c>
@@ -2436,7 +2455,7 @@
       <c r="D29" s="17">
         <v>3</v>
       </c>
-      <c r="E29" s="51" t="s">
+      <c r="E29" s="50" t="s">
         <v>113</v>
       </c>
       <c r="F29" s="34">
@@ -2445,12 +2464,14 @@
       <c r="G29" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="47"/>
+      <c r="H29" s="31">
+        <v>500000</v>
+      </c>
       <c r="I29" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="29" t="s">
         <v>51</v>
       </c>
@@ -2463,7 +2484,7 @@
       <c r="D30" s="17">
         <v>3</v>
       </c>
-      <c r="E30" s="51" t="s">
+      <c r="E30" s="50" t="s">
         <v>113</v>
       </c>
       <c r="F30" s="34">
@@ -2479,7 +2500,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="29" t="s">
         <v>51</v>
       </c>
@@ -2492,7 +2513,7 @@
       <c r="D31" s="17">
         <v>3</v>
       </c>
-      <c r="E31" s="51" t="s">
+      <c r="E31" s="50" t="s">
         <v>113</v>
       </c>
       <c r="F31" s="34">
@@ -2508,7 +2529,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="29" t="s">
         <v>51</v>
       </c>
@@ -2521,7 +2542,7 @@
       <c r="D32" s="17">
         <v>3</v>
       </c>
-      <c r="E32" s="51" t="s">
+      <c r="E32" s="50" t="s">
         <v>113</v>
       </c>
       <c r="F32" s="34">
@@ -2537,7 +2558,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="29" t="s">
         <v>51</v>
       </c>
@@ -2550,7 +2571,7 @@
       <c r="D33" s="17">
         <v>3</v>
       </c>
-      <c r="E33" s="51" t="s">
+      <c r="E33" s="50" t="s">
         <v>113</v>
       </c>
       <c r="F33" s="34">
@@ -2566,7 +2587,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="17"/>
       <c r="B34"/>
       <c r="C34" s="18"/>
@@ -2576,7 +2597,7 @@
       <c r="G34" s="30"/>
       <c r="H34" s="31"/>
     </row>
-    <row r="35" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
         <v>54</v>
       </c>
@@ -2589,7 +2610,7 @@
       <c r="D35" s="17">
         <v>3</v>
       </c>
-      <c r="E35" s="51" t="s">
+      <c r="E35" s="50" t="s">
         <v>114</v>
       </c>
       <c r="F35" s="30" t="s">
@@ -2604,11 +2625,13 @@
       <c r="I35" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J35" s="46"/>
+      <c r="J35" s="30">
+        <v>30</v>
+      </c>
       <c r="K35" s="30"/>
       <c r="L35" s="31"/>
     </row>
-    <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="29" t="s">
         <v>54</v>
       </c>
@@ -2621,7 +2644,7 @@
       <c r="D36" s="17">
         <v>3</v>
       </c>
-      <c r="E36" s="51" t="s">
+      <c r="E36" s="50" t="s">
         <v>114</v>
       </c>
       <c r="F36" s="29" t="s">
@@ -2630,13 +2653,13 @@
       <c r="G36" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H36" s="50"/>
+      <c r="H36" s="49"/>
       <c r="I36" s="30"/>
       <c r="J36" s="30"/>
       <c r="K36" s="30"/>
       <c r="L36" s="38"/>
     </row>
-    <row r="37" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="29" t="s">
         <v>54</v>
       </c>
@@ -2649,7 +2672,7 @@
       <c r="D37" s="17">
         <v>3</v>
       </c>
-      <c r="E37" s="51" t="s">
+      <c r="E37" s="50" t="s">
         <v>114</v>
       </c>
       <c r="F37" s="29" t="s">
@@ -2658,13 +2681,13 @@
       <c r="G37" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="H37" s="50"/>
+      <c r="H37" s="49"/>
       <c r="I37" s="30"/>
       <c r="J37" s="30"/>
       <c r="K37" s="30"/>
       <c r="L37" s="31"/>
     </row>
-    <row r="38" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="29" t="s">
         <v>54</v>
       </c>
@@ -2677,7 +2700,7 @@
       <c r="D38" s="17">
         <v>3</v>
       </c>
-      <c r="E38" s="51" t="s">
+      <c r="E38" s="50" t="s">
         <v>114</v>
       </c>
       <c r="F38" s="29" t="s">
@@ -2694,7 +2717,7 @@
       <c r="K38" s="30"/>
       <c r="L38" s="31"/>
     </row>
-    <row r="39" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="29" t="s">
         <v>54</v>
       </c>
@@ -2707,7 +2730,7 @@
       <c r="D39" s="17">
         <v>3</v>
       </c>
-      <c r="E39" s="51" t="s">
+      <c r="E39" s="50" t="s">
         <v>114</v>
       </c>
       <c r="F39" s="29" t="s">
@@ -2723,7 +2746,7 @@
       <c r="K39" s="30"/>
       <c r="L39" s="31"/>
     </row>
-    <row r="40" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="29" t="s">
         <v>54</v>
       </c>
@@ -2736,7 +2759,7 @@
       <c r="D40" s="17">
         <v>3</v>
       </c>
-      <c r="E40" s="51" t="s">
+      <c r="E40" s="50" t="s">
         <v>114</v>
       </c>
       <c r="F40" s="29" t="s">
@@ -2752,7 +2775,7 @@
       <c r="K40" s="30"/>
       <c r="L40" s="31"/>
     </row>
-    <row r="41" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="29" t="s">
         <v>54</v>
       </c>
@@ -2765,7 +2788,7 @@
       <c r="D41" s="17">
         <v>3</v>
       </c>
-      <c r="E41" s="51" t="s">
+      <c r="E41" s="50" t="s">
         <v>114</v>
       </c>
       <c r="F41" s="29" t="s">
@@ -2781,7 +2804,7 @@
       <c r="K41" s="30"/>
       <c r="L41" s="31"/>
     </row>
-    <row r="42" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="29" t="s">
         <v>54</v>
       </c>
@@ -2794,7 +2817,7 @@
       <c r="D42" s="17">
         <v>3</v>
       </c>
-      <c r="E42" s="51" t="s">
+      <c r="E42" s="50" t="s">
         <v>114</v>
       </c>
       <c r="F42" s="29" t="s">
@@ -2810,7 +2833,7 @@
       <c r="K42" s="30"/>
       <c r="L42" s="31"/>
     </row>
-    <row r="43" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="29" t="s">
         <v>54</v>
       </c>
@@ -2823,7 +2846,7 @@
       <c r="D43" s="17">
         <v>3</v>
       </c>
-      <c r="E43" s="51" t="s">
+      <c r="E43" s="50" t="s">
         <v>114</v>
       </c>
       <c r="F43" s="29" t="s">
@@ -2839,7 +2862,7 @@
       <c r="K43" s="30"/>
       <c r="L43" s="31"/>
     </row>
-    <row r="44" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="29" t="s">
         <v>54</v>
       </c>
@@ -2852,7 +2875,7 @@
       <c r="D44" s="17">
         <v>3</v>
       </c>
-      <c r="E44" s="51" t="s">
+      <c r="E44" s="50" t="s">
         <v>114</v>
       </c>
       <c r="F44" s="29" t="s">
@@ -2868,7 +2891,7 @@
       <c r="K44" s="30"/>
       <c r="L44" s="31"/>
     </row>
-    <row r="45" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="29" t="s">
         <v>54</v>
       </c>
@@ -2881,7 +2904,7 @@
       <c r="D45" s="17">
         <v>3</v>
       </c>
-      <c r="E45" s="51" t="s">
+      <c r="E45" s="50" t="s">
         <v>114</v>
       </c>
       <c r="F45" s="29" t="s">
@@ -2897,7 +2920,7 @@
       <c r="K45" s="30"/>
       <c r="L45" s="31"/>
     </row>
-    <row r="46" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="29" t="s">
         <v>54</v>
       </c>
@@ -2910,7 +2933,7 @@
       <c r="D46" s="17">
         <v>3</v>
       </c>
-      <c r="E46" s="51" t="s">
+      <c r="E46" s="50" t="s">
         <v>114</v>
       </c>
       <c r="F46" s="29" t="s">
@@ -2926,7 +2949,7 @@
       <c r="K46" s="30"/>
       <c r="L46" s="31"/>
     </row>
-    <row r="47" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="29" t="s">
         <v>54</v>
       </c>
@@ -2939,7 +2962,7 @@
       <c r="D47" s="17">
         <v>3</v>
       </c>
-      <c r="E47" s="51" t="s">
+      <c r="E47" s="50" t="s">
         <v>114</v>
       </c>
       <c r="F47" s="29" t="s">
@@ -2955,7 +2978,7 @@
       <c r="K47" s="30"/>
       <c r="L47" s="31"/>
     </row>
-    <row r="48" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="29" t="s">
         <v>54</v>
       </c>
@@ -2968,7 +2991,7 @@
       <c r="D48" s="17">
         <v>3</v>
       </c>
-      <c r="E48" s="51" t="s">
+      <c r="E48" s="50" t="s">
         <v>114</v>
       </c>
       <c r="F48" s="29" t="s">
@@ -2984,7 +3007,7 @@
       <c r="K48" s="30"/>
       <c r="L48" s="31"/>
     </row>
-    <row r="49" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="29" t="s">
         <v>54</v>
       </c>
@@ -2997,7 +3020,7 @@
       <c r="D49" s="17">
         <v>3</v>
       </c>
-      <c r="E49" s="51" t="s">
+      <c r="E49" s="50" t="s">
         <v>114</v>
       </c>
       <c r="F49" s="29" t="s">
@@ -3013,7 +3036,7 @@
       <c r="K49" s="30"/>
       <c r="L49" s="31"/>
     </row>
-    <row r="50" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="29" t="s">
         <v>54</v>
       </c>
@@ -3026,7 +3049,7 @@
       <c r="D50" s="17">
         <v>3</v>
       </c>
-      <c r="E50" s="51" t="s">
+      <c r="E50" s="50" t="s">
         <v>114</v>
       </c>
       <c r="F50" s="29" t="s">
@@ -3042,7 +3065,7 @@
       <c r="K50" s="30"/>
       <c r="L50" s="31"/>
     </row>
-    <row r="51" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="29" t="s">
         <v>54</v>
       </c>
@@ -3055,7 +3078,7 @@
       <c r="D51" s="17">
         <v>3</v>
       </c>
-      <c r="E51" s="51" t="s">
+      <c r="E51" s="50" t="s">
         <v>114</v>
       </c>
       <c r="F51" s="29" t="s">
@@ -3071,7 +3094,7 @@
       <c r="K51" s="30"/>
       <c r="L51" s="31"/>
     </row>
-    <row r="52" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="29" t="s">
         <v>54</v>
       </c>
@@ -3084,7 +3107,7 @@
       <c r="D52" s="17">
         <v>3</v>
       </c>
-      <c r="E52" s="51" t="s">
+      <c r="E52" s="50" t="s">
         <v>114</v>
       </c>
       <c r="F52" s="29" t="s">
@@ -3100,7 +3123,7 @@
       <c r="K52" s="30"/>
       <c r="L52" s="31"/>
     </row>
-    <row r="53" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="29" t="s">
         <v>54</v>
       </c>
@@ -3113,7 +3136,7 @@
       <c r="D53" s="17">
         <v>3</v>
       </c>
-      <c r="E53" s="51" t="s">
+      <c r="E53" s="50" t="s">
         <v>114</v>
       </c>
       <c r="F53" s="29" t="s">
@@ -3129,7 +3152,7 @@
       <c r="K53" s="30"/>
       <c r="L53" s="31"/>
     </row>
-    <row r="54" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="29" t="s">
         <v>54</v>
       </c>
@@ -3142,7 +3165,7 @@
       <c r="D54" s="17">
         <v>3</v>
       </c>
-      <c r="E54" s="51" t="s">
+      <c r="E54" s="50" t="s">
         <v>114</v>
       </c>
       <c r="F54" s="29" t="s">
@@ -3158,7 +3181,7 @@
       <c r="K54" s="30"/>
       <c r="L54" s="31"/>
     </row>
-    <row r="55" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="29" t="s">
         <v>54</v>
       </c>
@@ -3171,7 +3194,7 @@
       <c r="D55" s="17">
         <v>3</v>
       </c>
-      <c r="E55" s="51" t="s">
+      <c r="E55" s="50" t="s">
         <v>114</v>
       </c>
       <c r="F55" s="29" t="s">
@@ -3187,7 +3210,7 @@
       <c r="K55" s="30"/>
       <c r="L55" s="31"/>
     </row>
-    <row r="56" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="29" t="s">
         <v>54</v>
       </c>
@@ -3200,7 +3223,7 @@
       <c r="D56" s="17">
         <v>3</v>
       </c>
-      <c r="E56" s="51" t="s">
+      <c r="E56" s="50" t="s">
         <v>114</v>
       </c>
       <c r="F56" s="29" t="s">
@@ -3216,7 +3239,7 @@
       <c r="K56" s="30"/>
       <c r="L56" s="31"/>
     </row>
-    <row r="57" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="29" t="s">
         <v>54</v>
       </c>
@@ -3229,7 +3252,7 @@
       <c r="D57" s="17">
         <v>3</v>
       </c>
-      <c r="E57" s="51" t="s">
+      <c r="E57" s="50" t="s">
         <v>114</v>
       </c>
       <c r="F57" s="29" t="s">
@@ -3245,7 +3268,7 @@
       <c r="K57" s="30"/>
       <c r="L57" s="31"/>
     </row>
-    <row r="58" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="29" t="s">
         <v>54</v>
       </c>
@@ -3258,7 +3281,7 @@
       <c r="D58" s="17">
         <v>3</v>
       </c>
-      <c r="E58" s="51" t="s">
+      <c r="E58" s="50" t="s">
         <v>114</v>
       </c>
       <c r="F58" s="29" t="s">
@@ -3274,7 +3297,7 @@
       <c r="K58" s="30"/>
       <c r="L58" s="31"/>
     </row>
-    <row r="59" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="29" t="s">
         <v>54</v>
       </c>
@@ -3287,7 +3310,7 @@
       <c r="D59" s="17">
         <v>3</v>
       </c>
-      <c r="E59" s="51" t="s">
+      <c r="E59" s="50" t="s">
         <v>114</v>
       </c>
       <c r="F59" s="29" t="s">
@@ -3303,7 +3326,7 @@
       <c r="K59" s="30"/>
       <c r="L59" s="31"/>
     </row>
-    <row r="60" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="29" t="s">
         <v>54</v>
       </c>
@@ -3316,7 +3339,7 @@
       <c r="D60" s="17">
         <v>3</v>
       </c>
-      <c r="E60" s="51" t="s">
+      <c r="E60" s="50" t="s">
         <v>114</v>
       </c>
       <c r="F60" s="29" t="s">
@@ -3332,7 +3355,7 @@
       <c r="K60" s="30"/>
       <c r="L60" s="31"/>
     </row>
-    <row r="61" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="29" t="s">
         <v>54</v>
       </c>
@@ -3345,7 +3368,7 @@
       <c r="D61" s="17">
         <v>3</v>
       </c>
-      <c r="E61" s="51" t="s">
+      <c r="E61" s="50" t="s">
         <v>114</v>
       </c>
       <c r="F61" s="29" t="s">
@@ -3361,7 +3384,7 @@
       <c r="K61" s="30"/>
       <c r="L61" s="31"/>
     </row>
-    <row r="62" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="17"/>
       <c r="B62"/>
       <c r="C62" s="18"/>
@@ -3371,7 +3394,7 @@
       <c r="K62" s="30"/>
       <c r="L62" s="31"/>
     </row>
-    <row r="63" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="17" t="s">
         <v>55</v>
       </c>
@@ -3384,7 +3407,7 @@
       <c r="D63" s="17">
         <v>3</v>
       </c>
-      <c r="E63" s="51" t="s">
+      <c r="E63" s="50" t="s">
         <v>115</v>
       </c>
       <c r="F63" s="30" t="s">
@@ -3399,11 +3422,13 @@
       <c r="I63" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J63" s="46"/>
+      <c r="J63" s="30">
+        <v>40</v>
+      </c>
       <c r="K63" s="30"/>
       <c r="L63" s="31"/>
     </row>
-    <row r="64" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="29" t="s">
         <v>55</v>
       </c>
@@ -3416,7 +3441,7 @@
       <c r="D64" s="17">
         <v>3</v>
       </c>
-      <c r="E64" s="51" t="s">
+      <c r="E64" s="50" t="s">
         <v>115</v>
       </c>
       <c r="F64" s="29" t="s">
@@ -3425,13 +3450,13 @@
       <c r="G64" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H64" s="50"/>
+      <c r="H64" s="49"/>
       <c r="I64" s="30"/>
       <c r="J64" s="30"/>
       <c r="K64" s="30"/>
       <c r="L64" s="38"/>
     </row>
-    <row r="65" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="29" t="s">
         <v>55</v>
       </c>
@@ -3444,7 +3469,7 @@
       <c r="D65" s="17">
         <v>3</v>
       </c>
-      <c r="E65" s="51" t="s">
+      <c r="E65" s="50" t="s">
         <v>115</v>
       </c>
       <c r="F65" s="29" t="s">
@@ -3453,13 +3478,13 @@
       <c r="G65" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="H65" s="50"/>
+      <c r="H65" s="49"/>
       <c r="I65" s="30"/>
       <c r="J65" s="30"/>
       <c r="K65" s="30"/>
       <c r="L65" s="31"/>
     </row>
-    <row r="66" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="29" t="s">
         <v>55</v>
       </c>
@@ -3472,7 +3497,7 @@
       <c r="D66" s="17">
         <v>3</v>
       </c>
-      <c r="E66" s="51" t="s">
+      <c r="E66" s="50" t="s">
         <v>115</v>
       </c>
       <c r="F66" s="29" t="s">
@@ -3489,7 +3514,7 @@
       <c r="K66" s="30"/>
       <c r="L66" s="31"/>
     </row>
-    <row r="67" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="29" t="s">
         <v>55</v>
       </c>
@@ -3502,7 +3527,7 @@
       <c r="D67" s="17">
         <v>3</v>
       </c>
-      <c r="E67" s="51" t="s">
+      <c r="E67" s="50" t="s">
         <v>115</v>
       </c>
       <c r="F67" s="29" t="s">
@@ -3518,7 +3543,7 @@
       <c r="K67" s="30"/>
       <c r="L67" s="31"/>
     </row>
-    <row r="68" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="29" t="s">
         <v>55</v>
       </c>
@@ -3531,7 +3556,7 @@
       <c r="D68" s="17">
         <v>3</v>
       </c>
-      <c r="E68" s="51" t="s">
+      <c r="E68" s="50" t="s">
         <v>115</v>
       </c>
       <c r="F68" s="29" t="s">
@@ -3547,7 +3572,7 @@
       <c r="K68" s="30"/>
       <c r="L68" s="31"/>
     </row>
-    <row r="69" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="29" t="s">
         <v>55</v>
       </c>
@@ -3560,7 +3585,7 @@
       <c r="D69" s="17">
         <v>3</v>
       </c>
-      <c r="E69" s="51" t="s">
+      <c r="E69" s="50" t="s">
         <v>115</v>
       </c>
       <c r="F69" s="29" t="s">
@@ -3576,7 +3601,7 @@
       <c r="K69" s="30"/>
       <c r="L69" s="31"/>
     </row>
-    <row r="70" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="29" t="s">
         <v>55</v>
       </c>
@@ -3589,7 +3614,7 @@
       <c r="D70" s="17">
         <v>3</v>
       </c>
-      <c r="E70" s="51" t="s">
+      <c r="E70" s="50" t="s">
         <v>115</v>
       </c>
       <c r="F70" s="29" t="s">
@@ -3605,7 +3630,7 @@
       <c r="K70" s="30"/>
       <c r="L70" s="31"/>
     </row>
-    <row r="71" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="29" t="s">
         <v>55</v>
       </c>
@@ -3618,7 +3643,7 @@
       <c r="D71" s="17">
         <v>3</v>
       </c>
-      <c r="E71" s="51" t="s">
+      <c r="E71" s="50" t="s">
         <v>115</v>
       </c>
       <c r="F71" s="29" t="s">
@@ -3634,7 +3659,7 @@
       <c r="K71" s="30"/>
       <c r="L71" s="31"/>
     </row>
-    <row r="72" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="29" t="s">
         <v>55</v>
       </c>
@@ -3647,7 +3672,7 @@
       <c r="D72" s="17">
         <v>3</v>
       </c>
-      <c r="E72" s="51" t="s">
+      <c r="E72" s="50" t="s">
         <v>115</v>
       </c>
       <c r="F72" s="29" t="s">
@@ -3663,7 +3688,7 @@
       <c r="K72" s="30"/>
       <c r="L72" s="31"/>
     </row>
-    <row r="73" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="29" t="s">
         <v>55</v>
       </c>
@@ -3676,7 +3701,7 @@
       <c r="D73" s="17">
         <v>3</v>
       </c>
-      <c r="E73" s="51" t="s">
+      <c r="E73" s="50" t="s">
         <v>115</v>
       </c>
       <c r="F73" s="29" t="s">
@@ -3692,7 +3717,7 @@
       <c r="K73" s="30"/>
       <c r="L73" s="31"/>
     </row>
-    <row r="74" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="29" t="s">
         <v>55</v>
       </c>
@@ -3705,7 +3730,7 @@
       <c r="D74" s="17">
         <v>3</v>
       </c>
-      <c r="E74" s="51" t="s">
+      <c r="E74" s="50" t="s">
         <v>115</v>
       </c>
       <c r="F74" s="29" t="s">
@@ -3721,7 +3746,7 @@
       <c r="K74" s="30"/>
       <c r="L74" s="31"/>
     </row>
-    <row r="75" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="29" t="s">
         <v>55</v>
       </c>
@@ -3734,7 +3759,7 @@
       <c r="D75" s="17">
         <v>3</v>
       </c>
-      <c r="E75" s="51" t="s">
+      <c r="E75" s="50" t="s">
         <v>115</v>
       </c>
       <c r="F75" s="29" t="s">
@@ -3750,7 +3775,7 @@
       <c r="K75" s="30"/>
       <c r="L75" s="31"/>
     </row>
-    <row r="76" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="29" t="s">
         <v>55</v>
       </c>
@@ -3763,7 +3788,7 @@
       <c r="D76" s="17">
         <v>3</v>
       </c>
-      <c r="E76" s="51" t="s">
+      <c r="E76" s="50" t="s">
         <v>115</v>
       </c>
       <c r="F76" s="29" t="s">
@@ -3779,7 +3804,7 @@
       <c r="K76" s="30"/>
       <c r="L76" s="31"/>
     </row>
-    <row r="77" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="29" t="s">
         <v>55</v>
       </c>
@@ -3792,7 +3817,7 @@
       <c r="D77" s="17">
         <v>3</v>
       </c>
-      <c r="E77" s="51" t="s">
+      <c r="E77" s="50" t="s">
         <v>115</v>
       </c>
       <c r="F77" s="29" t="s">
@@ -3808,7 +3833,7 @@
       <c r="K77" s="30"/>
       <c r="L77" s="31"/>
     </row>
-    <row r="78" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="29" t="s">
         <v>55</v>
       </c>
@@ -3821,7 +3846,7 @@
       <c r="D78" s="17">
         <v>3</v>
       </c>
-      <c r="E78" s="51" t="s">
+      <c r="E78" s="50" t="s">
         <v>115</v>
       </c>
       <c r="F78" s="29" t="s">
@@ -3837,7 +3862,7 @@
       <c r="K78" s="30"/>
       <c r="L78" s="31"/>
     </row>
-    <row r="79" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="29" t="s">
         <v>55</v>
       </c>
@@ -3850,7 +3875,7 @@
       <c r="D79" s="17">
         <v>3</v>
       </c>
-      <c r="E79" s="51" t="s">
+      <c r="E79" s="50" t="s">
         <v>115</v>
       </c>
       <c r="F79" s="29" t="s">
@@ -3866,7 +3891,7 @@
       <c r="K79" s="30"/>
       <c r="L79" s="31"/>
     </row>
-    <row r="80" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="29" t="s">
         <v>55</v>
       </c>
@@ -3879,7 +3904,7 @@
       <c r="D80" s="17">
         <v>3</v>
       </c>
-      <c r="E80" s="51" t="s">
+      <c r="E80" s="50" t="s">
         <v>115</v>
       </c>
       <c r="F80" s="29" t="s">
@@ -3895,7 +3920,7 @@
       <c r="K80" s="30"/>
       <c r="L80" s="31"/>
     </row>
-    <row r="81" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="29" t="s">
         <v>55</v>
       </c>
@@ -3908,7 +3933,7 @@
       <c r="D81" s="17">
         <v>3</v>
       </c>
-      <c r="E81" s="51" t="s">
+      <c r="E81" s="50" t="s">
         <v>115</v>
       </c>
       <c r="F81" s="29" t="s">
@@ -3924,7 +3949,7 @@
       <c r="K81" s="30"/>
       <c r="L81" s="31"/>
     </row>
-    <row r="82" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="29" t="s">
         <v>55</v>
       </c>
@@ -3937,7 +3962,7 @@
       <c r="D82" s="17">
         <v>3</v>
       </c>
-      <c r="E82" s="51" t="s">
+      <c r="E82" s="50" t="s">
         <v>115</v>
       </c>
       <c r="F82" s="29" t="s">
@@ -3953,7 +3978,7 @@
       <c r="K82" s="30"/>
       <c r="L82" s="31"/>
     </row>
-    <row r="83" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="29" t="s">
         <v>55</v>
       </c>
@@ -3966,7 +3991,7 @@
       <c r="D83" s="17">
         <v>3</v>
       </c>
-      <c r="E83" s="51" t="s">
+      <c r="E83" s="50" t="s">
         <v>115</v>
       </c>
       <c r="F83" s="29" t="s">
@@ -3982,7 +4007,7 @@
       <c r="K83" s="30"/>
       <c r="L83" s="31"/>
     </row>
-    <row r="84" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="29" t="s">
         <v>55</v>
       </c>
@@ -3995,7 +4020,7 @@
       <c r="D84" s="17">
         <v>3</v>
       </c>
-      <c r="E84" s="51" t="s">
+      <c r="E84" s="50" t="s">
         <v>115</v>
       </c>
       <c r="F84" s="29" t="s">
@@ -4011,7 +4036,7 @@
       <c r="K84" s="30"/>
       <c r="L84" s="31"/>
     </row>
-    <row r="85" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="29" t="s">
         <v>55</v>
       </c>
@@ -4024,7 +4049,7 @@
       <c r="D85" s="17">
         <v>3</v>
       </c>
-      <c r="E85" s="51" t="s">
+      <c r="E85" s="50" t="s">
         <v>115</v>
       </c>
       <c r="F85" s="29" t="s">
@@ -4040,7 +4065,7 @@
       <c r="K85" s="30"/>
       <c r="L85" s="31"/>
     </row>
-    <row r="86" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="29" t="s">
         <v>55</v>
       </c>
@@ -4053,7 +4078,7 @@
       <c r="D86" s="17">
         <v>3</v>
       </c>
-      <c r="E86" s="51" t="s">
+      <c r="E86" s="50" t="s">
         <v>115</v>
       </c>
       <c r="F86" s="29" t="s">
@@ -4069,7 +4094,7 @@
       <c r="K86" s="30"/>
       <c r="L86" s="31"/>
     </row>
-    <row r="87" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="29" t="s">
         <v>55</v>
       </c>
@@ -4082,7 +4107,7 @@
       <c r="D87" s="17">
         <v>3</v>
       </c>
-      <c r="E87" s="51" t="s">
+      <c r="E87" s="50" t="s">
         <v>115</v>
       </c>
       <c r="F87" s="29" t="s">
@@ -4098,7 +4123,7 @@
       <c r="K87" s="30"/>
       <c r="L87" s="31"/>
     </row>
-    <row r="88" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="29" t="s">
         <v>55</v>
       </c>
@@ -4111,7 +4136,7 @@
       <c r="D88" s="17">
         <v>3</v>
       </c>
-      <c r="E88" s="51" t="s">
+      <c r="E88" s="50" t="s">
         <v>115</v>
       </c>
       <c r="F88" s="29" t="s">
@@ -4127,7 +4152,7 @@
       <c r="K88" s="30"/>
       <c r="L88" s="31"/>
     </row>
-    <row r="89" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="29" t="s">
         <v>55</v>
       </c>
@@ -4140,7 +4165,7 @@
       <c r="D89" s="17">
         <v>3</v>
       </c>
-      <c r="E89" s="51" t="s">
+      <c r="E89" s="50" t="s">
         <v>115</v>
       </c>
       <c r="F89" s="29" t="s">
@@ -4156,7 +4181,7 @@
       <c r="K89" s="30"/>
       <c r="L89" s="31"/>
     </row>
-    <row r="90" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="17"/>
       <c r="B90"/>
       <c r="C90" s="18"/>
@@ -4166,7 +4191,7 @@
       <c r="K90" s="30"/>
       <c r="L90" s="31"/>
     </row>
-    <row r="91" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="17" t="s">
         <v>56</v>
       </c>
@@ -4179,7 +4204,7 @@
       <c r="D91" s="17">
         <v>3</v>
       </c>
-      <c r="E91" s="51" t="s">
+      <c r="E91" s="50" t="s">
         <v>116</v>
       </c>
       <c r="F91" s="30" t="s">
@@ -4194,11 +4219,13 @@
       <c r="I91" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J91" s="46"/>
+      <c r="J91" s="30">
+        <v>60</v>
+      </c>
       <c r="K91" s="30"/>
       <c r="L91" s="31"/>
     </row>
-    <row r="92" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="29" t="s">
         <v>56</v>
       </c>
@@ -4211,7 +4238,7 @@
       <c r="D92" s="17">
         <v>3</v>
       </c>
-      <c r="E92" s="51" t="s">
+      <c r="E92" s="50" t="s">
         <v>116</v>
       </c>
       <c r="F92" s="29" t="s">
@@ -4220,13 +4247,13 @@
       <c r="G92" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H92" s="50"/>
+      <c r="H92" s="49"/>
       <c r="I92" s="30"/>
       <c r="J92" s="30"/>
       <c r="K92" s="30"/>
       <c r="L92" s="38"/>
     </row>
-    <row r="93" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="29" t="s">
         <v>56</v>
       </c>
@@ -4239,7 +4266,7 @@
       <c r="D93" s="17">
         <v>3</v>
       </c>
-      <c r="E93" s="51" t="s">
+      <c r="E93" s="50" t="s">
         <v>116</v>
       </c>
       <c r="F93" s="29" t="s">
@@ -4248,13 +4275,13 @@
       <c r="G93" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="H93" s="50"/>
+      <c r="H93" s="49"/>
       <c r="I93" s="30"/>
       <c r="J93" s="30"/>
       <c r="K93" s="30"/>
       <c r="L93" s="31"/>
     </row>
-    <row r="94" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="29" t="s">
         <v>56</v>
       </c>
@@ -4267,7 +4294,7 @@
       <c r="D94" s="17">
         <v>3</v>
       </c>
-      <c r="E94" s="51" t="s">
+      <c r="E94" s="50" t="s">
         <v>116</v>
       </c>
       <c r="F94" s="29" t="s">
@@ -4284,7 +4311,7 @@
       <c r="K94" s="30"/>
       <c r="L94" s="31"/>
     </row>
-    <row r="95" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="29" t="s">
         <v>56</v>
       </c>
@@ -4297,7 +4324,7 @@
       <c r="D95" s="17">
         <v>3</v>
       </c>
-      <c r="E95" s="51" t="s">
+      <c r="E95" s="50" t="s">
         <v>116</v>
       </c>
       <c r="F95" s="29" t="s">
@@ -4313,7 +4340,7 @@
       <c r="K95" s="30"/>
       <c r="L95" s="31"/>
     </row>
-    <row r="96" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="29" t="s">
         <v>56</v>
       </c>
@@ -4326,7 +4353,7 @@
       <c r="D96" s="17">
         <v>3</v>
       </c>
-      <c r="E96" s="51" t="s">
+      <c r="E96" s="50" t="s">
         <v>116</v>
       </c>
       <c r="F96" s="29" t="s">
@@ -4342,7 +4369,7 @@
       <c r="K96" s="30"/>
       <c r="L96" s="31"/>
     </row>
-    <row r="97" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="29" t="s">
         <v>56</v>
       </c>
@@ -4355,7 +4382,7 @@
       <c r="D97" s="17">
         <v>3</v>
       </c>
-      <c r="E97" s="51" t="s">
+      <c r="E97" s="50" t="s">
         <v>116</v>
       </c>
       <c r="F97" s="29" t="s">
@@ -4371,7 +4398,7 @@
       <c r="K97" s="30"/>
       <c r="L97" s="31"/>
     </row>
-    <row r="98" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="29" t="s">
         <v>56</v>
       </c>
@@ -4384,7 +4411,7 @@
       <c r="D98" s="17">
         <v>3</v>
       </c>
-      <c r="E98" s="51" t="s">
+      <c r="E98" s="50" t="s">
         <v>116</v>
       </c>
       <c r="F98" s="29" t="s">
@@ -4400,7 +4427,7 @@
       <c r="K98" s="30"/>
       <c r="L98" s="31"/>
     </row>
-    <row r="99" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="29" t="s">
         <v>56</v>
       </c>
@@ -4413,7 +4440,7 @@
       <c r="D99" s="17">
         <v>3</v>
       </c>
-      <c r="E99" s="51" t="s">
+      <c r="E99" s="50" t="s">
         <v>116</v>
       </c>
       <c r="F99" s="29" t="s">
@@ -4429,7 +4456,7 @@
       <c r="K99" s="30"/>
       <c r="L99" s="31"/>
     </row>
-    <row r="100" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="29" t="s">
         <v>56</v>
       </c>
@@ -4442,7 +4469,7 @@
       <c r="D100" s="17">
         <v>3</v>
       </c>
-      <c r="E100" s="51" t="s">
+      <c r="E100" s="50" t="s">
         <v>116</v>
       </c>
       <c r="F100" s="29" t="s">
@@ -4458,7 +4485,7 @@
       <c r="K100" s="30"/>
       <c r="L100" s="31"/>
     </row>
-    <row r="101" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="29" t="s">
         <v>56</v>
       </c>
@@ -4471,7 +4498,7 @@
       <c r="D101" s="17">
         <v>3</v>
       </c>
-      <c r="E101" s="51" t="s">
+      <c r="E101" s="50" t="s">
         <v>116</v>
       </c>
       <c r="F101" s="29" t="s">
@@ -4487,7 +4514,7 @@
       <c r="K101" s="30"/>
       <c r="L101" s="31"/>
     </row>
-    <row r="102" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="29" t="s">
         <v>56</v>
       </c>
@@ -4500,7 +4527,7 @@
       <c r="D102" s="17">
         <v>3</v>
       </c>
-      <c r="E102" s="51" t="s">
+      <c r="E102" s="50" t="s">
         <v>116</v>
       </c>
       <c r="F102" s="29" t="s">
@@ -4516,7 +4543,7 @@
       <c r="K102" s="30"/>
       <c r="L102" s="31"/>
     </row>
-    <row r="103" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="29" t="s">
         <v>56</v>
       </c>
@@ -4529,7 +4556,7 @@
       <c r="D103" s="17">
         <v>3</v>
       </c>
-      <c r="E103" s="51" t="s">
+      <c r="E103" s="50" t="s">
         <v>116</v>
       </c>
       <c r="F103" s="29" t="s">
@@ -4545,7 +4572,7 @@
       <c r="K103" s="30"/>
       <c r="L103" s="31"/>
     </row>
-    <row r="104" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="29" t="s">
         <v>56</v>
       </c>
@@ -4558,7 +4585,7 @@
       <c r="D104" s="17">
         <v>3</v>
       </c>
-      <c r="E104" s="51" t="s">
+      <c r="E104" s="50" t="s">
         <v>116</v>
       </c>
       <c r="F104" s="29" t="s">
@@ -4574,7 +4601,7 @@
       <c r="K104" s="30"/>
       <c r="L104" s="31"/>
     </row>
-    <row r="105" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="29" t="s">
         <v>56</v>
       </c>
@@ -4587,7 +4614,7 @@
       <c r="D105" s="17">
         <v>3</v>
       </c>
-      <c r="E105" s="51" t="s">
+      <c r="E105" s="50" t="s">
         <v>116</v>
       </c>
       <c r="F105" s="29" t="s">
@@ -4603,7 +4630,7 @@
       <c r="K105" s="30"/>
       <c r="L105" s="31"/>
     </row>
-    <row r="106" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="29" t="s">
         <v>56</v>
       </c>
@@ -4616,7 +4643,7 @@
       <c r="D106" s="17">
         <v>3</v>
       </c>
-      <c r="E106" s="51" t="s">
+      <c r="E106" s="50" t="s">
         <v>116</v>
       </c>
       <c r="F106" s="29" t="s">
@@ -4632,7 +4659,7 @@
       <c r="K106" s="30"/>
       <c r="L106" s="31"/>
     </row>
-    <row r="107" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="29" t="s">
         <v>56</v>
       </c>
@@ -4645,7 +4672,7 @@
       <c r="D107" s="17">
         <v>3</v>
       </c>
-      <c r="E107" s="51" t="s">
+      <c r="E107" s="50" t="s">
         <v>116</v>
       </c>
       <c r="F107" s="29" t="s">
@@ -4661,7 +4688,7 @@
       <c r="K107" s="30"/>
       <c r="L107" s="31"/>
     </row>
-    <row r="108" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="29" t="s">
         <v>56</v>
       </c>
@@ -4674,7 +4701,7 @@
       <c r="D108" s="17">
         <v>3</v>
       </c>
-      <c r="E108" s="51" t="s">
+      <c r="E108" s="50" t="s">
         <v>116</v>
       </c>
       <c r="F108" s="29" t="s">
@@ -4690,7 +4717,7 @@
       <c r="K108" s="30"/>
       <c r="L108" s="31"/>
     </row>
-    <row r="109" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="29" t="s">
         <v>56</v>
       </c>
@@ -4703,7 +4730,7 @@
       <c r="D109" s="17">
         <v>3</v>
       </c>
-      <c r="E109" s="51" t="s">
+      <c r="E109" s="50" t="s">
         <v>116</v>
       </c>
       <c r="F109" s="29" t="s">
@@ -4719,7 +4746,7 @@
       <c r="K109" s="30"/>
       <c r="L109" s="31"/>
     </row>
-    <row r="110" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="29" t="s">
         <v>56</v>
       </c>
@@ -4732,7 +4759,7 @@
       <c r="D110" s="17">
         <v>3</v>
       </c>
-      <c r="E110" s="51" t="s">
+      <c r="E110" s="50" t="s">
         <v>116</v>
       </c>
       <c r="F110" s="29" t="s">
@@ -4748,7 +4775,7 @@
       <c r="K110" s="30"/>
       <c r="L110" s="31"/>
     </row>
-    <row r="111" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="29" t="s">
         <v>56</v>
       </c>
@@ -4761,7 +4788,7 @@
       <c r="D111" s="17">
         <v>3</v>
       </c>
-      <c r="E111" s="51" t="s">
+      <c r="E111" s="50" t="s">
         <v>116</v>
       </c>
       <c r="F111" s="29" t="s">
@@ -4777,7 +4804,7 @@
       <c r="K111" s="30"/>
       <c r="L111" s="31"/>
     </row>
-    <row r="112" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="29" t="s">
         <v>56</v>
       </c>
@@ -4790,7 +4817,7 @@
       <c r="D112" s="17">
         <v>3</v>
       </c>
-      <c r="E112" s="51" t="s">
+      <c r="E112" s="50" t="s">
         <v>116</v>
       </c>
       <c r="F112" s="29" t="s">
@@ -4806,7 +4833,7 @@
       <c r="K112" s="30"/>
       <c r="L112" s="31"/>
     </row>
-    <row r="113" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="29" t="s">
         <v>56</v>
       </c>
@@ -4819,7 +4846,7 @@
       <c r="D113" s="17">
         <v>3</v>
       </c>
-      <c r="E113" s="51" t="s">
+      <c r="E113" s="50" t="s">
         <v>116</v>
       </c>
       <c r="F113" s="29" t="s">
@@ -4835,7 +4862,7 @@
       <c r="K113" s="30"/>
       <c r="L113" s="31"/>
     </row>
-    <row r="114" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="29" t="s">
         <v>56</v>
       </c>
@@ -4848,7 +4875,7 @@
       <c r="D114" s="17">
         <v>3</v>
       </c>
-      <c r="E114" s="51" t="s">
+      <c r="E114" s="50" t="s">
         <v>116</v>
       </c>
       <c r="F114" s="29" t="s">
@@ -4864,7 +4891,7 @@
       <c r="K114" s="30"/>
       <c r="L114" s="31"/>
     </row>
-    <row r="115" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="29" t="s">
         <v>56</v>
       </c>
@@ -4877,7 +4904,7 @@
       <c r="D115" s="17">
         <v>3</v>
       </c>
-      <c r="E115" s="51" t="s">
+      <c r="E115" s="50" t="s">
         <v>116</v>
       </c>
       <c r="F115" s="29" t="s">
@@ -4893,7 +4920,7 @@
       <c r="K115" s="30"/>
       <c r="L115" s="31"/>
     </row>
-    <row r="116" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="29" t="s">
         <v>56</v>
       </c>
@@ -4906,7 +4933,7 @@
       <c r="D116" s="17">
         <v>3</v>
       </c>
-      <c r="E116" s="51" t="s">
+      <c r="E116" s="50" t="s">
         <v>116</v>
       </c>
       <c r="F116" s="29" t="s">
@@ -4922,7 +4949,7 @@
       <c r="K116" s="30"/>
       <c r="L116" s="31"/>
     </row>
-    <row r="117" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="29" t="s">
         <v>56</v>
       </c>
@@ -4935,7 +4962,7 @@
       <c r="D117" s="17">
         <v>3</v>
       </c>
-      <c r="E117" s="51" t="s">
+      <c r="E117" s="50" t="s">
         <v>116</v>
       </c>
       <c r="F117" s="29" t="s">
@@ -4951,7 +4978,7 @@
       <c r="K117" s="30"/>
       <c r="L117" s="31"/>
     </row>
-    <row r="118" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="17"/>
       <c r="B118"/>
       <c r="C118" s="18"/>
@@ -4961,7 +4988,7 @@
       <c r="K118" s="30"/>
       <c r="L118" s="31"/>
     </row>
-    <row r="119" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="17" t="s">
         <v>57</v>
       </c>
@@ -4974,7 +5001,7 @@
       <c r="D119" s="17">
         <v>3</v>
       </c>
-      <c r="E119" s="51" t="s">
+      <c r="E119" s="50" t="s">
         <v>117</v>
       </c>
       <c r="F119" s="30" t="s">
@@ -4989,11 +5016,13 @@
       <c r="I119" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J119" s="46"/>
+      <c r="J119" s="30">
+        <v>90</v>
+      </c>
       <c r="K119" s="30"/>
       <c r="L119" s="31"/>
     </row>
-    <row r="120" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="29" t="s">
         <v>57</v>
       </c>
@@ -5006,7 +5035,7 @@
       <c r="D120" s="17">
         <v>3</v>
       </c>
-      <c r="E120" s="51" t="s">
+      <c r="E120" s="50" t="s">
         <v>117</v>
       </c>
       <c r="F120" s="29" t="s">
@@ -5015,13 +5044,13 @@
       <c r="G120" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H120" s="50"/>
+      <c r="H120" s="49"/>
       <c r="I120" s="30"/>
       <c r="J120" s="30"/>
       <c r="K120" s="30"/>
       <c r="L120" s="38"/>
     </row>
-    <row r="121" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="29" t="s">
         <v>57</v>
       </c>
@@ -5034,7 +5063,7 @@
       <c r="D121" s="17">
         <v>3</v>
       </c>
-      <c r="E121" s="51" t="s">
+      <c r="E121" s="50" t="s">
         <v>117</v>
       </c>
       <c r="F121" s="29" t="s">
@@ -5043,13 +5072,13 @@
       <c r="G121" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="H121" s="50"/>
+      <c r="H121" s="49"/>
       <c r="I121" s="30"/>
       <c r="J121" s="30"/>
       <c r="K121" s="30"/>
       <c r="L121" s="31"/>
     </row>
-    <row r="122" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="29" t="s">
         <v>57</v>
       </c>
@@ -5062,7 +5091,7 @@
       <c r="D122" s="17">
         <v>3</v>
       </c>
-      <c r="E122" s="51" t="s">
+      <c r="E122" s="50" t="s">
         <v>117</v>
       </c>
       <c r="F122" s="29" t="s">
@@ -5079,7 +5108,7 @@
       <c r="K122" s="30"/>
       <c r="L122" s="31"/>
     </row>
-    <row r="123" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="29" t="s">
         <v>57</v>
       </c>
@@ -5092,7 +5121,7 @@
       <c r="D123" s="17">
         <v>3</v>
       </c>
-      <c r="E123" s="51" t="s">
+      <c r="E123" s="50" t="s">
         <v>117</v>
       </c>
       <c r="F123" s="29" t="s">
@@ -5108,7 +5137,7 @@
       <c r="K123" s="30"/>
       <c r="L123" s="31"/>
     </row>
-    <row r="124" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="29" t="s">
         <v>57</v>
       </c>
@@ -5121,7 +5150,7 @@
       <c r="D124" s="17">
         <v>3</v>
       </c>
-      <c r="E124" s="51" t="s">
+      <c r="E124" s="50" t="s">
         <v>117</v>
       </c>
       <c r="F124" s="29" t="s">
@@ -5137,7 +5166,7 @@
       <c r="K124" s="30"/>
       <c r="L124" s="31"/>
     </row>
-    <row r="125" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="29" t="s">
         <v>57</v>
       </c>
@@ -5150,7 +5179,7 @@
       <c r="D125" s="17">
         <v>3</v>
       </c>
-      <c r="E125" s="51" t="s">
+      <c r="E125" s="50" t="s">
         <v>117</v>
       </c>
       <c r="F125" s="29" t="s">
@@ -5166,7 +5195,7 @@
       <c r="K125" s="30"/>
       <c r="L125" s="31"/>
     </row>
-    <row r="126" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="29" t="s">
         <v>57</v>
       </c>
@@ -5179,7 +5208,7 @@
       <c r="D126" s="17">
         <v>3</v>
       </c>
-      <c r="E126" s="51" t="s">
+      <c r="E126" s="50" t="s">
         <v>117</v>
       </c>
       <c r="F126" s="29" t="s">
@@ -5195,7 +5224,7 @@
       <c r="K126" s="30"/>
       <c r="L126" s="31"/>
     </row>
-    <row r="127" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="29" t="s">
         <v>57</v>
       </c>
@@ -5208,7 +5237,7 @@
       <c r="D127" s="17">
         <v>3</v>
       </c>
-      <c r="E127" s="51" t="s">
+      <c r="E127" s="50" t="s">
         <v>117</v>
       </c>
       <c r="F127" s="29" t="s">
@@ -5224,7 +5253,7 @@
       <c r="K127" s="30"/>
       <c r="L127" s="31"/>
     </row>
-    <row r="128" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="29" t="s">
         <v>57</v>
       </c>
@@ -5237,7 +5266,7 @@
       <c r="D128" s="17">
         <v>3</v>
       </c>
-      <c r="E128" s="51" t="s">
+      <c r="E128" s="50" t="s">
         <v>117</v>
       </c>
       <c r="F128" s="29" t="s">
@@ -5253,7 +5282,7 @@
       <c r="K128" s="30"/>
       <c r="L128" s="31"/>
     </row>
-    <row r="129" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="29" t="s">
         <v>57</v>
       </c>
@@ -5266,7 +5295,7 @@
       <c r="D129" s="17">
         <v>3</v>
       </c>
-      <c r="E129" s="51" t="s">
+      <c r="E129" s="50" t="s">
         <v>117</v>
       </c>
       <c r="F129" s="29" t="s">
@@ -5282,7 +5311,7 @@
       <c r="K129" s="30"/>
       <c r="L129" s="31"/>
     </row>
-    <row r="130" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="29" t="s">
         <v>57</v>
       </c>
@@ -5295,7 +5324,7 @@
       <c r="D130" s="17">
         <v>3</v>
       </c>
-      <c r="E130" s="51" t="s">
+      <c r="E130" s="50" t="s">
         <v>117</v>
       </c>
       <c r="F130" s="29" t="s">
@@ -5311,7 +5340,7 @@
       <c r="K130" s="30"/>
       <c r="L130" s="31"/>
     </row>
-    <row r="131" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="29" t="s">
         <v>57</v>
       </c>
@@ -5324,7 +5353,7 @@
       <c r="D131" s="17">
         <v>3</v>
       </c>
-      <c r="E131" s="51" t="s">
+      <c r="E131" s="50" t="s">
         <v>117</v>
       </c>
       <c r="F131" s="29" t="s">
@@ -5340,7 +5369,7 @@
       <c r="K131" s="30"/>
       <c r="L131" s="31"/>
     </row>
-    <row r="132" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="29" t="s">
         <v>57</v>
       </c>
@@ -5353,7 +5382,7 @@
       <c r="D132" s="17">
         <v>3</v>
       </c>
-      <c r="E132" s="51" t="s">
+      <c r="E132" s="50" t="s">
         <v>117</v>
       </c>
       <c r="F132" s="29" t="s">
@@ -5369,7 +5398,7 @@
       <c r="K132" s="30"/>
       <c r="L132" s="31"/>
     </row>
-    <row r="133" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="29" t="s">
         <v>57</v>
       </c>
@@ -5382,7 +5411,7 @@
       <c r="D133" s="17">
         <v>3</v>
       </c>
-      <c r="E133" s="51" t="s">
+      <c r="E133" s="50" t="s">
         <v>117</v>
       </c>
       <c r="F133" s="29" t="s">
@@ -5398,7 +5427,7 @@
       <c r="K133" s="30"/>
       <c r="L133" s="31"/>
     </row>
-    <row r="134" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="29" t="s">
         <v>57</v>
       </c>
@@ -5411,7 +5440,7 @@
       <c r="D134" s="17">
         <v>3</v>
       </c>
-      <c r="E134" s="51" t="s">
+      <c r="E134" s="50" t="s">
         <v>117</v>
       </c>
       <c r="F134" s="29" t="s">
@@ -5427,7 +5456,7 @@
       <c r="K134" s="30"/>
       <c r="L134" s="31"/>
     </row>
-    <row r="135" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="29" t="s">
         <v>57</v>
       </c>
@@ -5440,7 +5469,7 @@
       <c r="D135" s="17">
         <v>3</v>
       </c>
-      <c r="E135" s="51" t="s">
+      <c r="E135" s="50" t="s">
         <v>117</v>
       </c>
       <c r="F135" s="29" t="s">
@@ -5456,7 +5485,7 @@
       <c r="K135" s="30"/>
       <c r="L135" s="31"/>
     </row>
-    <row r="136" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="29" t="s">
         <v>57</v>
       </c>
@@ -5469,7 +5498,7 @@
       <c r="D136" s="17">
         <v>3</v>
       </c>
-      <c r="E136" s="51" t="s">
+      <c r="E136" s="50" t="s">
         <v>117</v>
       </c>
       <c r="F136" s="29" t="s">
@@ -5485,7 +5514,7 @@
       <c r="K136" s="30"/>
       <c r="L136" s="31"/>
     </row>
-    <row r="137" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="29" t="s">
         <v>57</v>
       </c>
@@ -5498,7 +5527,7 @@
       <c r="D137" s="17">
         <v>3</v>
       </c>
-      <c r="E137" s="51" t="s">
+      <c r="E137" s="50" t="s">
         <v>117</v>
       </c>
       <c r="F137" s="29" t="s">
@@ -5514,7 +5543,7 @@
       <c r="K137" s="30"/>
       <c r="L137" s="31"/>
     </row>
-    <row r="138" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="29" t="s">
         <v>57</v>
       </c>
@@ -5527,7 +5556,7 @@
       <c r="D138" s="17">
         <v>3</v>
       </c>
-      <c r="E138" s="51" t="s">
+      <c r="E138" s="50" t="s">
         <v>117</v>
       </c>
       <c r="F138" s="29" t="s">
@@ -5543,7 +5572,7 @@
       <c r="K138" s="30"/>
       <c r="L138" s="31"/>
     </row>
-    <row r="139" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="29" t="s">
         <v>57</v>
       </c>
@@ -5556,7 +5585,7 @@
       <c r="D139" s="17">
         <v>3</v>
       </c>
-      <c r="E139" s="51" t="s">
+      <c r="E139" s="50" t="s">
         <v>117</v>
       </c>
       <c r="F139" s="29" t="s">
@@ -5572,7 +5601,7 @@
       <c r="K139" s="30"/>
       <c r="L139" s="31"/>
     </row>
-    <row r="140" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="29" t="s">
         <v>57</v>
       </c>
@@ -5585,7 +5614,7 @@
       <c r="D140" s="17">
         <v>3</v>
       </c>
-      <c r="E140" s="51" t="s">
+      <c r="E140" s="50" t="s">
         <v>117</v>
       </c>
       <c r="F140" s="29" t="s">
@@ -5601,7 +5630,7 @@
       <c r="K140" s="30"/>
       <c r="L140" s="31"/>
     </row>
-    <row r="141" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="29" t="s">
         <v>57</v>
       </c>
@@ -5614,7 +5643,7 @@
       <c r="D141" s="17">
         <v>3</v>
       </c>
-      <c r="E141" s="51" t="s">
+      <c r="E141" s="50" t="s">
         <v>117</v>
       </c>
       <c r="F141" s="29" t="s">
@@ -5630,7 +5659,7 @@
       <c r="K141" s="30"/>
       <c r="L141" s="31"/>
     </row>
-    <row r="142" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="29" t="s">
         <v>57</v>
       </c>
@@ -5643,7 +5672,7 @@
       <c r="D142" s="17">
         <v>3</v>
       </c>
-      <c r="E142" s="51" t="s">
+      <c r="E142" s="50" t="s">
         <v>117</v>
       </c>
       <c r="F142" s="29" t="s">
@@ -5659,7 +5688,7 @@
       <c r="K142" s="30"/>
       <c r="L142" s="31"/>
     </row>
-    <row r="143" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="29" t="s">
         <v>57</v>
       </c>
@@ -5672,7 +5701,7 @@
       <c r="D143" s="17">
         <v>3</v>
       </c>
-      <c r="E143" s="51" t="s">
+      <c r="E143" s="50" t="s">
         <v>117</v>
       </c>
       <c r="F143" s="29" t="s">
@@ -5688,7 +5717,7 @@
       <c r="K143" s="30"/>
       <c r="L143" s="31"/>
     </row>
-    <row r="144" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="29" t="s">
         <v>57</v>
       </c>
@@ -5701,7 +5730,7 @@
       <c r="D144" s="17">
         <v>3</v>
       </c>
-      <c r="E144" s="51" t="s">
+      <c r="E144" s="50" t="s">
         <v>117</v>
       </c>
       <c r="F144" s="29" t="s">
@@ -5717,7 +5746,7 @@
       <c r="K144" s="30"/>
       <c r="L144" s="31"/>
     </row>
-    <row r="145" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="29" t="s">
         <v>57</v>
       </c>
@@ -5730,7 +5759,7 @@
       <c r="D145" s="17">
         <v>3</v>
       </c>
-      <c r="E145" s="51" t="s">
+      <c r="E145" s="50" t="s">
         <v>117</v>
       </c>
       <c r="F145" s="29" t="s">
@@ -5746,7 +5775,7 @@
       <c r="K145" s="30"/>
       <c r="L145" s="31"/>
     </row>
-    <row r="146" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="17"/>
       <c r="B146"/>
       <c r="C146" s="18"/>
@@ -5756,7 +5785,7 @@
       <c r="K146" s="30"/>
       <c r="L146" s="31"/>
     </row>
-    <row r="147" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="17" t="s">
         <v>58</v>
       </c>
@@ -5769,7 +5798,7 @@
       <c r="D147" s="17">
         <v>3</v>
       </c>
-      <c r="E147" s="51" t="s">
+      <c r="E147" s="50" t="s">
         <v>118</v>
       </c>
       <c r="F147" s="30" t="s">
@@ -5784,11 +5813,13 @@
       <c r="I147" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J147" s="46"/>
+      <c r="J147" s="30">
+        <v>130</v>
+      </c>
       <c r="K147" s="30"/>
       <c r="L147" s="31"/>
     </row>
-    <row r="148" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="29" t="s">
         <v>58</v>
       </c>
@@ -5801,7 +5832,7 @@
       <c r="D148" s="17">
         <v>3</v>
       </c>
-      <c r="E148" s="51" t="s">
+      <c r="E148" s="50" t="s">
         <v>118</v>
       </c>
       <c r="F148" s="29" t="s">
@@ -5810,13 +5841,13 @@
       <c r="G148" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H148" s="50"/>
+      <c r="H148" s="49"/>
       <c r="I148" s="30"/>
       <c r="J148" s="30"/>
       <c r="K148" s="30"/>
       <c r="L148" s="38"/>
     </row>
-    <row r="149" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A149" s="29" t="s">
         <v>58</v>
       </c>
@@ -5829,7 +5860,7 @@
       <c r="D149" s="17">
         <v>3</v>
       </c>
-      <c r="E149" s="51" t="s">
+      <c r="E149" s="50" t="s">
         <v>118</v>
       </c>
       <c r="F149" s="29" t="s">
@@ -5838,13 +5869,13 @@
       <c r="G149" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="H149" s="50"/>
+      <c r="H149" s="49"/>
       <c r="I149" s="30"/>
       <c r="J149" s="30"/>
       <c r="K149" s="30"/>
       <c r="L149" s="31"/>
     </row>
-    <row r="150" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="29" t="s">
         <v>58</v>
       </c>
@@ -5857,7 +5888,7 @@
       <c r="D150" s="17">
         <v>3</v>
       </c>
-      <c r="E150" s="51" t="s">
+      <c r="E150" s="50" t="s">
         <v>118</v>
       </c>
       <c r="F150" s="29" t="s">
@@ -5874,7 +5905,7 @@
       <c r="K150" s="30"/>
       <c r="L150" s="31"/>
     </row>
-    <row r="151" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="29" t="s">
         <v>58</v>
       </c>
@@ -5887,7 +5918,7 @@
       <c r="D151" s="17">
         <v>3</v>
       </c>
-      <c r="E151" s="51" t="s">
+      <c r="E151" s="50" t="s">
         <v>118</v>
       </c>
       <c r="F151" s="29" t="s">
@@ -5903,7 +5934,7 @@
       <c r="K151" s="30"/>
       <c r="L151" s="31"/>
     </row>
-    <row r="152" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="29" t="s">
         <v>58</v>
       </c>
@@ -5916,7 +5947,7 @@
       <c r="D152" s="17">
         <v>3</v>
       </c>
-      <c r="E152" s="51" t="s">
+      <c r="E152" s="50" t="s">
         <v>118</v>
       </c>
       <c r="F152" s="29" t="s">
@@ -5932,7 +5963,7 @@
       <c r="K152" s="30"/>
       <c r="L152" s="31"/>
     </row>
-    <row r="153" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="29" t="s">
         <v>58</v>
       </c>
@@ -5945,7 +5976,7 @@
       <c r="D153" s="17">
         <v>3</v>
       </c>
-      <c r="E153" s="51" t="s">
+      <c r="E153" s="50" t="s">
         <v>118</v>
       </c>
       <c r="F153" s="29" t="s">
@@ -5961,7 +5992,7 @@
       <c r="K153" s="30"/>
       <c r="L153" s="31"/>
     </row>
-    <row r="154" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="29" t="s">
         <v>58</v>
       </c>
@@ -5974,7 +6005,7 @@
       <c r="D154" s="17">
         <v>3</v>
       </c>
-      <c r="E154" s="51" t="s">
+      <c r="E154" s="50" t="s">
         <v>118</v>
       </c>
       <c r="F154" s="29" t="s">
@@ -5990,7 +6021,7 @@
       <c r="K154" s="30"/>
       <c r="L154" s="31"/>
     </row>
-    <row r="155" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A155" s="29" t="s">
         <v>58</v>
       </c>
@@ -6003,7 +6034,7 @@
       <c r="D155" s="17">
         <v>3</v>
       </c>
-      <c r="E155" s="51" t="s">
+      <c r="E155" s="50" t="s">
         <v>118</v>
       </c>
       <c r="F155" s="29" t="s">
@@ -6019,7 +6050,7 @@
       <c r="K155" s="30"/>
       <c r="L155" s="31"/>
     </row>
-    <row r="156" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="29" t="s">
         <v>58</v>
       </c>
@@ -6032,7 +6063,7 @@
       <c r="D156" s="17">
         <v>3</v>
       </c>
-      <c r="E156" s="51" t="s">
+      <c r="E156" s="50" t="s">
         <v>118</v>
       </c>
       <c r="F156" s="29" t="s">
@@ -6048,7 +6079,7 @@
       <c r="K156" s="30"/>
       <c r="L156" s="31"/>
     </row>
-    <row r="157" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="29" t="s">
         <v>58</v>
       </c>
@@ -6061,7 +6092,7 @@
       <c r="D157" s="17">
         <v>3</v>
       </c>
-      <c r="E157" s="51" t="s">
+      <c r="E157" s="50" t="s">
         <v>118</v>
       </c>
       <c r="F157" s="29" t="s">
@@ -6077,7 +6108,7 @@
       <c r="K157" s="30"/>
       <c r="L157" s="31"/>
     </row>
-    <row r="158" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A158" s="29" t="s">
         <v>58</v>
       </c>
@@ -6090,7 +6121,7 @@
       <c r="D158" s="17">
         <v>3</v>
       </c>
-      <c r="E158" s="51" t="s">
+      <c r="E158" s="50" t="s">
         <v>118</v>
       </c>
       <c r="F158" s="29" t="s">
@@ -6106,7 +6137,7 @@
       <c r="K158" s="30"/>
       <c r="L158" s="31"/>
     </row>
-    <row r="159" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A159" s="29" t="s">
         <v>58</v>
       </c>
@@ -6119,7 +6150,7 @@
       <c r="D159" s="17">
         <v>3</v>
       </c>
-      <c r="E159" s="51" t="s">
+      <c r="E159" s="50" t="s">
         <v>118</v>
       </c>
       <c r="F159" s="29" t="s">
@@ -6135,7 +6166,7 @@
       <c r="K159" s="30"/>
       <c r="L159" s="31"/>
     </row>
-    <row r="160" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A160" s="29" t="s">
         <v>58</v>
       </c>
@@ -6148,7 +6179,7 @@
       <c r="D160" s="17">
         <v>3</v>
       </c>
-      <c r="E160" s="51" t="s">
+      <c r="E160" s="50" t="s">
         <v>118</v>
       </c>
       <c r="F160" s="29" t="s">
@@ -6164,7 +6195,7 @@
       <c r="K160" s="30"/>
       <c r="L160" s="31"/>
     </row>
-    <row r="161" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A161" s="29" t="s">
         <v>58</v>
       </c>
@@ -6177,7 +6208,7 @@
       <c r="D161" s="17">
         <v>3</v>
       </c>
-      <c r="E161" s="51" t="s">
+      <c r="E161" s="50" t="s">
         <v>118</v>
       </c>
       <c r="F161" s="29" t="s">
@@ -6193,7 +6224,7 @@
       <c r="K161" s="30"/>
       <c r="L161" s="31"/>
     </row>
-    <row r="162" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A162" s="29" t="s">
         <v>58</v>
       </c>
@@ -6206,7 +6237,7 @@
       <c r="D162" s="17">
         <v>3</v>
       </c>
-      <c r="E162" s="51" t="s">
+      <c r="E162" s="50" t="s">
         <v>118</v>
       </c>
       <c r="F162" s="29" t="s">
@@ -6222,7 +6253,7 @@
       <c r="K162" s="30"/>
       <c r="L162" s="31"/>
     </row>
-    <row r="163" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A163" s="29" t="s">
         <v>58</v>
       </c>
@@ -6235,7 +6266,7 @@
       <c r="D163" s="17">
         <v>3</v>
       </c>
-      <c r="E163" s="51" t="s">
+      <c r="E163" s="50" t="s">
         <v>118</v>
       </c>
       <c r="F163" s="29" t="s">
@@ -6251,7 +6282,7 @@
       <c r="K163" s="30"/>
       <c r="L163" s="31"/>
     </row>
-    <row r="164" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A164" s="29" t="s">
         <v>58</v>
       </c>
@@ -6264,7 +6295,7 @@
       <c r="D164" s="17">
         <v>3</v>
       </c>
-      <c r="E164" s="51" t="s">
+      <c r="E164" s="50" t="s">
         <v>118</v>
       </c>
       <c r="F164" s="29" t="s">
@@ -6280,7 +6311,7 @@
       <c r="K164" s="30"/>
       <c r="L164" s="31"/>
     </row>
-    <row r="165" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A165" s="29" t="s">
         <v>58</v>
       </c>
@@ -6293,7 +6324,7 @@
       <c r="D165" s="17">
         <v>3</v>
       </c>
-      <c r="E165" s="51" t="s">
+      <c r="E165" s="50" t="s">
         <v>118</v>
       </c>
       <c r="F165" s="29" t="s">
@@ -6309,7 +6340,7 @@
       <c r="K165" s="30"/>
       <c r="L165" s="31"/>
     </row>
-    <row r="166" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A166" s="29" t="s">
         <v>58</v>
       </c>
@@ -6322,7 +6353,7 @@
       <c r="D166" s="17">
         <v>3</v>
       </c>
-      <c r="E166" s="51" t="s">
+      <c r="E166" s="50" t="s">
         <v>118</v>
       </c>
       <c r="F166" s="29" t="s">
@@ -6338,7 +6369,7 @@
       <c r="K166" s="30"/>
       <c r="L166" s="31"/>
     </row>
-    <row r="167" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A167" s="29" t="s">
         <v>58</v>
       </c>
@@ -6351,7 +6382,7 @@
       <c r="D167" s="17">
         <v>3</v>
       </c>
-      <c r="E167" s="51" t="s">
+      <c r="E167" s="50" t="s">
         <v>118</v>
       </c>
       <c r="F167" s="29" t="s">
@@ -6367,7 +6398,7 @@
       <c r="K167" s="30"/>
       <c r="L167" s="31"/>
     </row>
-    <row r="168" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A168" s="29" t="s">
         <v>58</v>
       </c>
@@ -6380,7 +6411,7 @@
       <c r="D168" s="17">
         <v>3</v>
       </c>
-      <c r="E168" s="51" t="s">
+      <c r="E168" s="50" t="s">
         <v>118</v>
       </c>
       <c r="F168" s="29" t="s">
@@ -6396,7 +6427,7 @@
       <c r="K168" s="30"/>
       <c r="L168" s="31"/>
     </row>
-    <row r="169" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A169" s="29" t="s">
         <v>58</v>
       </c>
@@ -6409,7 +6440,7 @@
       <c r="D169" s="17">
         <v>3</v>
       </c>
-      <c r="E169" s="51" t="s">
+      <c r="E169" s="50" t="s">
         <v>118</v>
       </c>
       <c r="F169" s="29" t="s">
@@ -6425,7 +6456,7 @@
       <c r="K169" s="30"/>
       <c r="L169" s="31"/>
     </row>
-    <row r="170" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A170" s="29" t="s">
         <v>58</v>
       </c>
@@ -6438,7 +6469,7 @@
       <c r="D170" s="17">
         <v>3</v>
       </c>
-      <c r="E170" s="51" t="s">
+      <c r="E170" s="50" t="s">
         <v>118</v>
       </c>
       <c r="F170" s="29" t="s">
@@ -6454,7 +6485,7 @@
       <c r="K170" s="30"/>
       <c r="L170" s="31"/>
     </row>
-    <row r="171" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A171" s="29" t="s">
         <v>58</v>
       </c>
@@ -6467,7 +6498,7 @@
       <c r="D171" s="17">
         <v>3</v>
       </c>
-      <c r="E171" s="51" t="s">
+      <c r="E171" s="50" t="s">
         <v>118</v>
       </c>
       <c r="F171" s="29" t="s">
@@ -6483,7 +6514,7 @@
       <c r="K171" s="30"/>
       <c r="L171" s="31"/>
     </row>
-    <row r="172" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A172" s="29" t="s">
         <v>58</v>
       </c>
@@ -6496,7 +6527,7 @@
       <c r="D172" s="17">
         <v>3</v>
       </c>
-      <c r="E172" s="51" t="s">
+      <c r="E172" s="50" t="s">
         <v>118</v>
       </c>
       <c r="F172" s="29" t="s">
@@ -6512,7 +6543,7 @@
       <c r="K172" s="30"/>
       <c r="L172" s="31"/>
     </row>
-    <row r="173" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A173" s="29" t="s">
         <v>58</v>
       </c>
@@ -6525,7 +6556,7 @@
       <c r="D173" s="17">
         <v>3</v>
       </c>
-      <c r="E173" s="51" t="s">
+      <c r="E173" s="50" t="s">
         <v>118</v>
       </c>
       <c r="F173" s="29" t="s">
@@ -6541,7 +6572,7 @@
       <c r="K173" s="30"/>
       <c r="L173" s="31"/>
     </row>
-    <row r="174" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A174" s="17"/>
       <c r="B174"/>
       <c r="C174" s="18"/>
@@ -6551,7 +6582,7 @@
       <c r="K174" s="30"/>
       <c r="L174" s="31"/>
     </row>
-    <row r="175" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A175" s="17" t="s">
         <v>52</v>
       </c>
@@ -6564,7 +6595,7 @@
       <c r="D175" s="17">
         <v>3</v>
       </c>
-      <c r="E175" s="51" t="s">
+      <c r="E175" s="50" t="s">
         <v>119</v>
       </c>
       <c r="F175" s="31" t="s">
@@ -6579,11 +6610,13 @@
       <c r="I175" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J175" s="46"/>
+      <c r="J175" s="30">
+        <v>180</v>
+      </c>
       <c r="K175" s="30"/>
       <c r="L175" s="31"/>
     </row>
-    <row r="176" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A176" s="29" t="s">
         <v>52</v>
       </c>
@@ -6596,7 +6629,7 @@
       <c r="D176" s="17">
         <v>3</v>
       </c>
-      <c r="E176" s="51" t="s">
+      <c r="E176" s="50" t="s">
         <v>119</v>
       </c>
       <c r="F176" s="29" t="s">
@@ -6605,13 +6638,13 @@
       <c r="G176" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H176" s="50"/>
+      <c r="H176" s="49"/>
       <c r="I176" s="30"/>
       <c r="J176" s="30"/>
       <c r="K176" s="30"/>
       <c r="L176" s="38"/>
     </row>
-    <row r="177" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A177" s="29" t="s">
         <v>52</v>
       </c>
@@ -6624,7 +6657,7 @@
       <c r="D177" s="17">
         <v>3</v>
       </c>
-      <c r="E177" s="51" t="s">
+      <c r="E177" s="50" t="s">
         <v>119</v>
       </c>
       <c r="F177" s="29" t="s">
@@ -6633,13 +6666,13 @@
       <c r="G177" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="H177" s="50"/>
+      <c r="H177" s="49"/>
       <c r="I177" s="30"/>
       <c r="J177" s="30"/>
       <c r="K177" s="30"/>
       <c r="L177" s="31"/>
     </row>
-    <row r="178" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A178" s="29" t="s">
         <v>52</v>
       </c>
@@ -6652,7 +6685,7 @@
       <c r="D178" s="17">
         <v>3</v>
       </c>
-      <c r="E178" s="51" t="s">
+      <c r="E178" s="50" t="s">
         <v>119</v>
       </c>
       <c r="F178" s="29" t="s">
@@ -6669,7 +6702,7 @@
       <c r="K178" s="30"/>
       <c r="L178" s="31"/>
     </row>
-    <row r="179" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A179" s="29" t="s">
         <v>52</v>
       </c>
@@ -6682,7 +6715,7 @@
       <c r="D179" s="17">
         <v>3</v>
       </c>
-      <c r="E179" s="51" t="s">
+      <c r="E179" s="50" t="s">
         <v>119</v>
       </c>
       <c r="F179" s="29" t="s">
@@ -6698,7 +6731,7 @@
       <c r="K179" s="30"/>
       <c r="L179" s="31"/>
     </row>
-    <row r="180" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A180" s="29" t="s">
         <v>52</v>
       </c>
@@ -6711,7 +6744,7 @@
       <c r="D180" s="17">
         <v>3</v>
       </c>
-      <c r="E180" s="51" t="s">
+      <c r="E180" s="50" t="s">
         <v>119</v>
       </c>
       <c r="F180" s="29" t="s">
@@ -6727,7 +6760,7 @@
       <c r="K180" s="30"/>
       <c r="L180" s="31"/>
     </row>
-    <row r="181" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A181" s="29" t="s">
         <v>52</v>
       </c>
@@ -6740,7 +6773,7 @@
       <c r="D181" s="17">
         <v>3</v>
       </c>
-      <c r="E181" s="51" t="s">
+      <c r="E181" s="50" t="s">
         <v>119</v>
       </c>
       <c r="F181" s="29" t="s">
@@ -6756,7 +6789,7 @@
       <c r="K181" s="30"/>
       <c r="L181" s="31"/>
     </row>
-    <row r="182" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A182" s="29" t="s">
         <v>52</v>
       </c>
@@ -6769,7 +6802,7 @@
       <c r="D182" s="17">
         <v>3</v>
       </c>
-      <c r="E182" s="51" t="s">
+      <c r="E182" s="50" t="s">
         <v>119</v>
       </c>
       <c r="F182" s="29" t="s">
@@ -6785,7 +6818,7 @@
       <c r="K182" s="30"/>
       <c r="L182" s="31"/>
     </row>
-    <row r="183" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A183" s="29" t="s">
         <v>52</v>
       </c>
@@ -6798,7 +6831,7 @@
       <c r="D183" s="17">
         <v>3</v>
       </c>
-      <c r="E183" s="51" t="s">
+      <c r="E183" s="50" t="s">
         <v>119</v>
       </c>
       <c r="F183" s="29" t="s">
@@ -6814,7 +6847,7 @@
       <c r="K183" s="30"/>
       <c r="L183" s="31"/>
     </row>
-    <row r="184" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A184" s="29" t="s">
         <v>52</v>
       </c>
@@ -6827,7 +6860,7 @@
       <c r="D184" s="17">
         <v>3</v>
       </c>
-      <c r="E184" s="51" t="s">
+      <c r="E184" s="50" t="s">
         <v>119</v>
       </c>
       <c r="F184" s="29" t="s">
@@ -6843,7 +6876,7 @@
       <c r="K184" s="30"/>
       <c r="L184" s="31"/>
     </row>
-    <row r="185" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A185" s="29" t="s">
         <v>52</v>
       </c>
@@ -6856,7 +6889,7 @@
       <c r="D185" s="17">
         <v>3</v>
       </c>
-      <c r="E185" s="51" t="s">
+      <c r="E185" s="50" t="s">
         <v>119</v>
       </c>
       <c r="F185" s="29" t="s">
@@ -6872,7 +6905,7 @@
       <c r="K185" s="30"/>
       <c r="L185" s="31"/>
     </row>
-    <row r="186" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A186" s="29" t="s">
         <v>52</v>
       </c>
@@ -6885,7 +6918,7 @@
       <c r="D186" s="17">
         <v>3</v>
       </c>
-      <c r="E186" s="51" t="s">
+      <c r="E186" s="50" t="s">
         <v>119</v>
       </c>
       <c r="F186" s="29" t="s">
@@ -6901,7 +6934,7 @@
       <c r="K186" s="30"/>
       <c r="L186" s="31"/>
     </row>
-    <row r="187" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A187" s="29" t="s">
         <v>52</v>
       </c>
@@ -6914,7 +6947,7 @@
       <c r="D187" s="17">
         <v>3</v>
       </c>
-      <c r="E187" s="51" t="s">
+      <c r="E187" s="50" t="s">
         <v>119</v>
       </c>
       <c r="F187" s="29" t="s">
@@ -6930,7 +6963,7 @@
       <c r="K187" s="30"/>
       <c r="L187" s="31"/>
     </row>
-    <row r="188" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A188" s="29" t="s">
         <v>52</v>
       </c>
@@ -6943,7 +6976,7 @@
       <c r="D188" s="17">
         <v>3</v>
       </c>
-      <c r="E188" s="51" t="s">
+      <c r="E188" s="50" t="s">
         <v>119</v>
       </c>
       <c r="F188" s="29" t="s">
@@ -6959,7 +6992,7 @@
       <c r="K188" s="30"/>
       <c r="L188" s="31"/>
     </row>
-    <row r="189" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A189" s="29" t="s">
         <v>52</v>
       </c>
@@ -6972,7 +7005,7 @@
       <c r="D189" s="17">
         <v>3</v>
       </c>
-      <c r="E189" s="51" t="s">
+      <c r="E189" s="50" t="s">
         <v>119</v>
       </c>
       <c r="F189" s="29" t="s">
@@ -6988,7 +7021,7 @@
       <c r="K189" s="30"/>
       <c r="L189" s="31"/>
     </row>
-    <row r="190" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A190" s="29" t="s">
         <v>52</v>
       </c>
@@ -7001,7 +7034,7 @@
       <c r="D190" s="17">
         <v>3</v>
       </c>
-      <c r="E190" s="51" t="s">
+      <c r="E190" s="50" t="s">
         <v>119</v>
       </c>
       <c r="F190" s="29" t="s">
@@ -7017,7 +7050,7 @@
       <c r="K190" s="30"/>
       <c r="L190" s="31"/>
     </row>
-    <row r="191" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A191" s="29" t="s">
         <v>52</v>
       </c>
@@ -7030,7 +7063,7 @@
       <c r="D191" s="17">
         <v>3</v>
       </c>
-      <c r="E191" s="51" t="s">
+      <c r="E191" s="50" t="s">
         <v>119</v>
       </c>
       <c r="F191" s="29" t="s">
@@ -7046,7 +7079,7 @@
       <c r="K191" s="30"/>
       <c r="L191" s="31"/>
     </row>
-    <row r="192" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A192" s="29" t="s">
         <v>52</v>
       </c>
@@ -7059,7 +7092,7 @@
       <c r="D192" s="17">
         <v>3</v>
       </c>
-      <c r="E192" s="51" t="s">
+      <c r="E192" s="50" t="s">
         <v>119</v>
       </c>
       <c r="F192" s="29" t="s">
@@ -7075,7 +7108,7 @@
       <c r="K192" s="30"/>
       <c r="L192" s="31"/>
     </row>
-    <row r="193" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A193" s="29" t="s">
         <v>52</v>
       </c>
@@ -7088,7 +7121,7 @@
       <c r="D193" s="17">
         <v>3</v>
       </c>
-      <c r="E193" s="51" t="s">
+      <c r="E193" s="50" t="s">
         <v>119</v>
       </c>
       <c r="F193" s="29" t="s">
@@ -7104,7 +7137,7 @@
       <c r="K193" s="30"/>
       <c r="L193" s="31"/>
     </row>
-    <row r="194" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A194" s="29" t="s">
         <v>52</v>
       </c>
@@ -7117,7 +7150,7 @@
       <c r="D194" s="17">
         <v>3</v>
       </c>
-      <c r="E194" s="51" t="s">
+      <c r="E194" s="50" t="s">
         <v>119</v>
       </c>
       <c r="F194" s="29" t="s">
@@ -7133,7 +7166,7 @@
       <c r="K194" s="30"/>
       <c r="L194" s="31"/>
     </row>
-    <row r="195" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A195" s="29" t="s">
         <v>52</v>
       </c>
@@ -7146,7 +7179,7 @@
       <c r="D195" s="17">
         <v>3</v>
       </c>
-      <c r="E195" s="51" t="s">
+      <c r="E195" s="50" t="s">
         <v>119</v>
       </c>
       <c r="F195" s="29" t="s">
@@ -7162,7 +7195,7 @@
       <c r="K195" s="30"/>
       <c r="L195" s="31"/>
     </row>
-    <row r="196" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A196" s="29" t="s">
         <v>52</v>
       </c>
@@ -7175,7 +7208,7 @@
       <c r="D196" s="17">
         <v>3</v>
       </c>
-      <c r="E196" s="51" t="s">
+      <c r="E196" s="50" t="s">
         <v>119</v>
       </c>
       <c r="F196" s="29" t="s">
@@ -7191,7 +7224,7 @@
       <c r="K196" s="30"/>
       <c r="L196" s="31"/>
     </row>
-    <row r="197" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A197" s="29" t="s">
         <v>52</v>
       </c>
@@ -7204,7 +7237,7 @@
       <c r="D197" s="17">
         <v>3</v>
       </c>
-      <c r="E197" s="51" t="s">
+      <c r="E197" s="50" t="s">
         <v>119</v>
       </c>
       <c r="F197" s="29" t="s">
@@ -7220,7 +7253,7 @@
       <c r="K197" s="30"/>
       <c r="L197" s="31"/>
     </row>
-    <row r="198" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A198" s="29" t="s">
         <v>52</v>
       </c>
@@ -7233,7 +7266,7 @@
       <c r="D198" s="17">
         <v>3</v>
       </c>
-      <c r="E198" s="51" t="s">
+      <c r="E198" s="50" t="s">
         <v>119</v>
       </c>
       <c r="F198" s="29" t="s">
@@ -7249,7 +7282,7 @@
       <c r="K198" s="30"/>
       <c r="L198" s="31"/>
     </row>
-    <row r="199" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A199" s="29" t="s">
         <v>52</v>
       </c>
@@ -7262,7 +7295,7 @@
       <c r="D199" s="17">
         <v>3</v>
       </c>
-      <c r="E199" s="51" t="s">
+      <c r="E199" s="50" t="s">
         <v>119</v>
       </c>
       <c r="F199" s="29" t="s">
@@ -7278,7 +7311,7 @@
       <c r="K199" s="30"/>
       <c r="L199" s="31"/>
     </row>
-    <row r="200" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A200" s="29" t="s">
         <v>52</v>
       </c>
@@ -7291,7 +7324,7 @@
       <c r="D200" s="17">
         <v>3</v>
       </c>
-      <c r="E200" s="51" t="s">
+      <c r="E200" s="50" t="s">
         <v>119</v>
       </c>
       <c r="F200" s="29" t="s">
@@ -7307,7 +7340,7 @@
       <c r="K200" s="30"/>
       <c r="L200" s="31"/>
     </row>
-    <row r="201" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A201" s="29" t="s">
         <v>52</v>
       </c>
@@ -7320,7 +7353,7 @@
       <c r="D201" s="17">
         <v>3</v>
       </c>
-      <c r="E201" s="51" t="s">
+      <c r="E201" s="50" t="s">
         <v>119</v>
       </c>
       <c r="F201" s="29" t="s">
@@ -7336,7 +7369,7 @@
       <c r="K201" s="30"/>
       <c r="L201" s="31"/>
     </row>
-    <row r="202" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A202" s="17"/>
       <c r="B202"/>
       <c r="C202" s="18"/>
@@ -7346,7 +7379,7 @@
       <c r="K202" s="30"/>
       <c r="L202" s="31"/>
     </row>
-    <row r="203" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A203" s="17" t="s">
         <v>59</v>
       </c>
@@ -7359,7 +7392,7 @@
       <c r="D203" s="17">
         <v>3</v>
       </c>
-      <c r="E203" s="51" t="s">
+      <c r="E203" s="50" t="s">
         <v>120</v>
       </c>
       <c r="F203" s="30" t="s">
@@ -7374,11 +7407,13 @@
       <c r="I203" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J203" s="46"/>
+      <c r="J203" s="30">
+        <v>250</v>
+      </c>
       <c r="K203" s="30"/>
       <c r="L203" s="31"/>
     </row>
-    <row r="204" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A204" s="29" t="s">
         <v>59</v>
       </c>
@@ -7391,7 +7426,7 @@
       <c r="D204" s="17">
         <v>3</v>
       </c>
-      <c r="E204" s="51" t="s">
+      <c r="E204" s="50" t="s">
         <v>120</v>
       </c>
       <c r="F204" s="29" t="s">
@@ -7400,13 +7435,13 @@
       <c r="G204" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H204" s="50"/>
+      <c r="H204" s="49"/>
       <c r="I204" s="30"/>
       <c r="J204" s="30"/>
       <c r="K204" s="30"/>
       <c r="L204" s="38"/>
     </row>
-    <row r="205" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A205" s="29" t="s">
         <v>59</v>
       </c>
@@ -7419,7 +7454,7 @@
       <c r="D205" s="17">
         <v>3</v>
       </c>
-      <c r="E205" s="51" t="s">
+      <c r="E205" s="50" t="s">
         <v>120</v>
       </c>
       <c r="F205" s="29" t="s">
@@ -7428,13 +7463,13 @@
       <c r="G205" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="H205" s="50"/>
+      <c r="H205" s="49"/>
       <c r="I205" s="30"/>
       <c r="J205" s="30"/>
       <c r="K205" s="30"/>
       <c r="L205" s="31"/>
     </row>
-    <row r="206" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A206" s="29" t="s">
         <v>59</v>
       </c>
@@ -7447,7 +7482,7 @@
       <c r="D206" s="17">
         <v>3</v>
       </c>
-      <c r="E206" s="51" t="s">
+      <c r="E206" s="50" t="s">
         <v>120</v>
       </c>
       <c r="F206" s="29" t="s">
@@ -7464,7 +7499,7 @@
       <c r="K206" s="30"/>
       <c r="L206" s="31"/>
     </row>
-    <row r="207" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A207" s="29" t="s">
         <v>59</v>
       </c>
@@ -7477,7 +7512,7 @@
       <c r="D207" s="17">
         <v>3</v>
       </c>
-      <c r="E207" s="51" t="s">
+      <c r="E207" s="50" t="s">
         <v>120</v>
       </c>
       <c r="F207" s="29" t="s">
@@ -7493,7 +7528,7 @@
       <c r="K207" s="30"/>
       <c r="L207" s="31"/>
     </row>
-    <row r="208" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A208" s="29" t="s">
         <v>59</v>
       </c>
@@ -7506,7 +7541,7 @@
       <c r="D208" s="17">
         <v>3</v>
       </c>
-      <c r="E208" s="51" t="s">
+      <c r="E208" s="50" t="s">
         <v>120</v>
       </c>
       <c r="F208" s="29" t="s">
@@ -7522,7 +7557,7 @@
       <c r="K208" s="30"/>
       <c r="L208" s="31"/>
     </row>
-    <row r="209" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A209" s="29" t="s">
         <v>59</v>
       </c>
@@ -7535,7 +7570,7 @@
       <c r="D209" s="17">
         <v>3</v>
       </c>
-      <c r="E209" s="51" t="s">
+      <c r="E209" s="50" t="s">
         <v>120</v>
       </c>
       <c r="F209" s="29" t="s">
@@ -7551,7 +7586,7 @@
       <c r="K209" s="30"/>
       <c r="L209" s="31"/>
     </row>
-    <row r="210" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A210" s="29" t="s">
         <v>59</v>
       </c>
@@ -7564,7 +7599,7 @@
       <c r="D210" s="17">
         <v>3</v>
       </c>
-      <c r="E210" s="51" t="s">
+      <c r="E210" s="50" t="s">
         <v>120</v>
       </c>
       <c r="F210" s="29" t="s">
@@ -7580,7 +7615,7 @@
       <c r="K210" s="30"/>
       <c r="L210" s="31"/>
     </row>
-    <row r="211" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A211" s="29" t="s">
         <v>59</v>
       </c>
@@ -7593,7 +7628,7 @@
       <c r="D211" s="17">
         <v>3</v>
       </c>
-      <c r="E211" s="51" t="s">
+      <c r="E211" s="50" t="s">
         <v>120</v>
       </c>
       <c r="F211" s="29" t="s">
@@ -7609,7 +7644,7 @@
       <c r="K211" s="30"/>
       <c r="L211" s="31"/>
     </row>
-    <row r="212" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A212" s="29" t="s">
         <v>59</v>
       </c>
@@ -7622,7 +7657,7 @@
       <c r="D212" s="17">
         <v>3</v>
       </c>
-      <c r="E212" s="51" t="s">
+      <c r="E212" s="50" t="s">
         <v>120</v>
       </c>
       <c r="F212" s="29" t="s">
@@ -7638,7 +7673,7 @@
       <c r="K212" s="30"/>
       <c r="L212" s="31"/>
     </row>
-    <row r="213" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A213" s="29" t="s">
         <v>59</v>
       </c>
@@ -7651,7 +7686,7 @@
       <c r="D213" s="17">
         <v>3</v>
       </c>
-      <c r="E213" s="51" t="s">
+      <c r="E213" s="50" t="s">
         <v>120</v>
       </c>
       <c r="F213" s="29" t="s">
@@ -7667,7 +7702,7 @@
       <c r="K213" s="30"/>
       <c r="L213" s="31"/>
     </row>
-    <row r="214" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A214" s="29" t="s">
         <v>59</v>
       </c>
@@ -7680,7 +7715,7 @@
       <c r="D214" s="17">
         <v>3</v>
       </c>
-      <c r="E214" s="51" t="s">
+      <c r="E214" s="50" t="s">
         <v>120</v>
       </c>
       <c r="F214" s="29" t="s">
@@ -7696,7 +7731,7 @@
       <c r="K214" s="30"/>
       <c r="L214" s="31"/>
     </row>
-    <row r="215" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A215" s="29" t="s">
         <v>59</v>
       </c>
@@ -7709,7 +7744,7 @@
       <c r="D215" s="17">
         <v>3</v>
       </c>
-      <c r="E215" s="51" t="s">
+      <c r="E215" s="50" t="s">
         <v>120</v>
       </c>
       <c r="F215" s="29" t="s">
@@ -7725,7 +7760,7 @@
       <c r="K215" s="30"/>
       <c r="L215" s="31"/>
     </row>
-    <row r="216" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A216" s="29" t="s">
         <v>59</v>
       </c>
@@ -7738,7 +7773,7 @@
       <c r="D216" s="17">
         <v>3</v>
       </c>
-      <c r="E216" s="51" t="s">
+      <c r="E216" s="50" t="s">
         <v>120</v>
       </c>
       <c r="F216" s="29" t="s">
@@ -7754,7 +7789,7 @@
       <c r="K216" s="30"/>
       <c r="L216" s="31"/>
     </row>
-    <row r="217" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A217" s="29" t="s">
         <v>59</v>
       </c>
@@ -7767,7 +7802,7 @@
       <c r="D217" s="17">
         <v>3</v>
       </c>
-      <c r="E217" s="51" t="s">
+      <c r="E217" s="50" t="s">
         <v>120</v>
       </c>
       <c r="F217" s="29" t="s">
@@ -7783,7 +7818,7 @@
       <c r="K217" s="30"/>
       <c r="L217" s="31"/>
     </row>
-    <row r="218" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A218" s="29" t="s">
         <v>59</v>
       </c>
@@ -7796,7 +7831,7 @@
       <c r="D218" s="17">
         <v>3</v>
       </c>
-      <c r="E218" s="51" t="s">
+      <c r="E218" s="50" t="s">
         <v>120</v>
       </c>
       <c r="F218" s="29" t="s">
@@ -7812,7 +7847,7 @@
       <c r="K218" s="30"/>
       <c r="L218" s="31"/>
     </row>
-    <row r="219" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A219" s="29" t="s">
         <v>59</v>
       </c>
@@ -7825,7 +7860,7 @@
       <c r="D219" s="17">
         <v>3</v>
       </c>
-      <c r="E219" s="51" t="s">
+      <c r="E219" s="50" t="s">
         <v>120</v>
       </c>
       <c r="F219" s="29" t="s">
@@ -7841,7 +7876,7 @@
       <c r="K219" s="30"/>
       <c r="L219" s="31"/>
     </row>
-    <row r="220" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A220" s="29" t="s">
         <v>59</v>
       </c>
@@ -7854,7 +7889,7 @@
       <c r="D220" s="17">
         <v>3</v>
       </c>
-      <c r="E220" s="51" t="s">
+      <c r="E220" s="50" t="s">
         <v>120</v>
       </c>
       <c r="F220" s="29" t="s">
@@ -7870,7 +7905,7 @@
       <c r="K220" s="30"/>
       <c r="L220" s="31"/>
     </row>
-    <row r="221" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A221" s="29" t="s">
         <v>59</v>
       </c>
@@ -7883,7 +7918,7 @@
       <c r="D221" s="17">
         <v>3</v>
       </c>
-      <c r="E221" s="51" t="s">
+      <c r="E221" s="50" t="s">
         <v>120</v>
       </c>
       <c r="F221" s="29" t="s">
@@ -7899,7 +7934,7 @@
       <c r="K221" s="30"/>
       <c r="L221" s="31"/>
     </row>
-    <row r="222" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A222" s="29" t="s">
         <v>59</v>
       </c>
@@ -7912,7 +7947,7 @@
       <c r="D222" s="17">
         <v>3</v>
       </c>
-      <c r="E222" s="51" t="s">
+      <c r="E222" s="50" t="s">
         <v>120</v>
       </c>
       <c r="F222" s="29" t="s">
@@ -7928,7 +7963,7 @@
       <c r="K222" s="30"/>
       <c r="L222" s="31"/>
     </row>
-    <row r="223" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A223" s="29" t="s">
         <v>59</v>
       </c>
@@ -7941,7 +7976,7 @@
       <c r="D223" s="17">
         <v>3</v>
       </c>
-      <c r="E223" s="51" t="s">
+      <c r="E223" s="50" t="s">
         <v>120</v>
       </c>
       <c r="F223" s="29" t="s">
@@ -7957,7 +7992,7 @@
       <c r="K223" s="30"/>
       <c r="L223" s="31"/>
     </row>
-    <row r="224" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A224" s="29" t="s">
         <v>59</v>
       </c>
@@ -7970,7 +8005,7 @@
       <c r="D224" s="17">
         <v>3</v>
       </c>
-      <c r="E224" s="51" t="s">
+      <c r="E224" s="50" t="s">
         <v>120</v>
       </c>
       <c r="F224" s="29" t="s">
@@ -7986,7 +8021,7 @@
       <c r="K224" s="30"/>
       <c r="L224" s="31"/>
     </row>
-    <row r="225" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A225" s="29" t="s">
         <v>59</v>
       </c>
@@ -7999,7 +8034,7 @@
       <c r="D225" s="17">
         <v>3</v>
       </c>
-      <c r="E225" s="51" t="s">
+      <c r="E225" s="50" t="s">
         <v>120</v>
       </c>
       <c r="F225" s="29" t="s">
@@ -8015,7 +8050,7 @@
       <c r="K225" s="30"/>
       <c r="L225" s="31"/>
     </row>
-    <row r="226" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A226" s="29" t="s">
         <v>59</v>
       </c>
@@ -8028,7 +8063,7 @@
       <c r="D226" s="17">
         <v>3</v>
       </c>
-      <c r="E226" s="51" t="s">
+      <c r="E226" s="50" t="s">
         <v>120</v>
       </c>
       <c r="F226" s="29" t="s">
@@ -8044,7 +8079,7 @@
       <c r="K226" s="30"/>
       <c r="L226" s="31"/>
     </row>
-    <row r="227" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A227" s="29" t="s">
         <v>59</v>
       </c>
@@ -8057,7 +8092,7 @@
       <c r="D227" s="17">
         <v>3</v>
       </c>
-      <c r="E227" s="51" t="s">
+      <c r="E227" s="50" t="s">
         <v>120</v>
       </c>
       <c r="F227" s="29" t="s">
@@ -8073,7 +8108,7 @@
       <c r="K227" s="30"/>
       <c r="L227" s="31"/>
     </row>
-    <row r="228" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A228" s="29" t="s">
         <v>59</v>
       </c>
@@ -8086,7 +8121,7 @@
       <c r="D228" s="17">
         <v>3</v>
       </c>
-      <c r="E228" s="51" t="s">
+      <c r="E228" s="50" t="s">
         <v>120</v>
       </c>
       <c r="F228" s="29" t="s">
@@ -8102,7 +8137,7 @@
       <c r="K228" s="30"/>
       <c r="L228" s="31"/>
     </row>
-    <row r="229" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A229" s="29" t="s">
         <v>59</v>
       </c>
@@ -8115,7 +8150,7 @@
       <c r="D229" s="17">
         <v>3</v>
       </c>
-      <c r="E229" s="51" t="s">
+      <c r="E229" s="50" t="s">
         <v>120</v>
       </c>
       <c r="F229" s="29" t="s">
@@ -8131,7 +8166,7 @@
       <c r="K229" s="30"/>
       <c r="L229" s="31"/>
     </row>
-    <row r="230" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A230" s="17"/>
       <c r="B230"/>
       <c r="C230" s="18"/>
@@ -8141,7 +8176,7 @@
       <c r="K230" s="30"/>
       <c r="L230" s="31"/>
     </row>
-    <row r="231" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A231" s="17" t="s">
         <v>60</v>
       </c>
@@ -8154,7 +8189,7 @@
       <c r="D231" s="17">
         <v>3</v>
       </c>
-      <c r="E231" s="51" t="s">
+      <c r="E231" s="50" t="s">
         <v>121</v>
       </c>
       <c r="F231" s="30" t="s">
@@ -8169,11 +8204,13 @@
       <c r="I231" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J231" s="46"/>
+      <c r="J231" s="30">
+        <v>350</v>
+      </c>
       <c r="K231" s="30"/>
       <c r="L231" s="31"/>
     </row>
-    <row r="232" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A232" s="29" t="s">
         <v>60</v>
       </c>
@@ -8186,7 +8223,7 @@
       <c r="D232" s="17">
         <v>3</v>
       </c>
-      <c r="E232" s="51" t="s">
+      <c r="E232" s="50" t="s">
         <v>121</v>
       </c>
       <c r="F232" s="29" t="s">
@@ -8195,13 +8232,13 @@
       <c r="G232" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H232" s="50"/>
+      <c r="H232" s="49"/>
       <c r="I232" s="30"/>
       <c r="J232" s="30"/>
       <c r="K232" s="30"/>
       <c r="L232" s="38"/>
     </row>
-    <row r="233" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A233" s="29" t="s">
         <v>60</v>
       </c>
@@ -8214,7 +8251,7 @@
       <c r="D233" s="17">
         <v>3</v>
       </c>
-      <c r="E233" s="51" t="s">
+      <c r="E233" s="50" t="s">
         <v>121</v>
       </c>
       <c r="F233" s="29" t="s">
@@ -8223,13 +8260,13 @@
       <c r="G233" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="H233" s="50"/>
+      <c r="H233" s="49"/>
       <c r="I233" s="30"/>
       <c r="J233" s="30"/>
       <c r="K233" s="30"/>
       <c r="L233" s="31"/>
     </row>
-    <row r="234" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A234" s="29" t="s">
         <v>60</v>
       </c>
@@ -8242,7 +8279,7 @@
       <c r="D234" s="17">
         <v>3</v>
       </c>
-      <c r="E234" s="51" t="s">
+      <c r="E234" s="50" t="s">
         <v>121</v>
       </c>
       <c r="F234" s="29" t="s">
@@ -8259,7 +8296,7 @@
       <c r="K234" s="30"/>
       <c r="L234" s="31"/>
     </row>
-    <row r="235" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A235" s="29" t="s">
         <v>60</v>
       </c>
@@ -8272,7 +8309,7 @@
       <c r="D235" s="17">
         <v>3</v>
       </c>
-      <c r="E235" s="51" t="s">
+      <c r="E235" s="50" t="s">
         <v>121</v>
       </c>
       <c r="F235" s="29" t="s">
@@ -8288,7 +8325,7 @@
       <c r="K235" s="30"/>
       <c r="L235" s="31"/>
     </row>
-    <row r="236" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A236" s="29" t="s">
         <v>60</v>
       </c>
@@ -8301,7 +8338,7 @@
       <c r="D236" s="17">
         <v>3</v>
       </c>
-      <c r="E236" s="51" t="s">
+      <c r="E236" s="50" t="s">
         <v>121</v>
       </c>
       <c r="F236" s="29" t="s">
@@ -8317,7 +8354,7 @@
       <c r="K236" s="30"/>
       <c r="L236" s="31"/>
     </row>
-    <row r="237" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A237" s="29" t="s">
         <v>60</v>
       </c>
@@ -8330,7 +8367,7 @@
       <c r="D237" s="17">
         <v>3</v>
       </c>
-      <c r="E237" s="51" t="s">
+      <c r="E237" s="50" t="s">
         <v>121</v>
       </c>
       <c r="F237" s="29" t="s">
@@ -8346,7 +8383,7 @@
       <c r="K237" s="30"/>
       <c r="L237" s="31"/>
     </row>
-    <row r="238" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A238" s="29" t="s">
         <v>60</v>
       </c>
@@ -8359,7 +8396,7 @@
       <c r="D238" s="17">
         <v>3</v>
       </c>
-      <c r="E238" s="51" t="s">
+      <c r="E238" s="50" t="s">
         <v>121</v>
       </c>
       <c r="F238" s="29" t="s">
@@ -8375,7 +8412,7 @@
       <c r="K238" s="30"/>
       <c r="L238" s="31"/>
     </row>
-    <row r="239" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A239" s="29" t="s">
         <v>60</v>
       </c>
@@ -8388,7 +8425,7 @@
       <c r="D239" s="17">
         <v>3</v>
       </c>
-      <c r="E239" s="51" t="s">
+      <c r="E239" s="50" t="s">
         <v>121</v>
       </c>
       <c r="F239" s="29" t="s">
@@ -8404,7 +8441,7 @@
       <c r="K239" s="30"/>
       <c r="L239" s="31"/>
     </row>
-    <row r="240" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A240" s="29" t="s">
         <v>60</v>
       </c>
@@ -8417,7 +8454,7 @@
       <c r="D240" s="17">
         <v>3</v>
       </c>
-      <c r="E240" s="51" t="s">
+      <c r="E240" s="50" t="s">
         <v>121</v>
       </c>
       <c r="F240" s="29" t="s">
@@ -8433,7 +8470,7 @@
       <c r="K240" s="30"/>
       <c r="L240" s="31"/>
     </row>
-    <row r="241" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A241" s="29" t="s">
         <v>60</v>
       </c>
@@ -8446,7 +8483,7 @@
       <c r="D241" s="17">
         <v>3</v>
       </c>
-      <c r="E241" s="51" t="s">
+      <c r="E241" s="50" t="s">
         <v>121</v>
       </c>
       <c r="F241" s="29" t="s">
@@ -8462,7 +8499,7 @@
       <c r="K241" s="30"/>
       <c r="L241" s="31"/>
     </row>
-    <row r="242" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A242" s="29" t="s">
         <v>60</v>
       </c>
@@ -8475,7 +8512,7 @@
       <c r="D242" s="17">
         <v>3</v>
       </c>
-      <c r="E242" s="51" t="s">
+      <c r="E242" s="50" t="s">
         <v>121</v>
       </c>
       <c r="F242" s="29" t="s">
@@ -8491,7 +8528,7 @@
       <c r="K242" s="30"/>
       <c r="L242" s="31"/>
     </row>
-    <row r="243" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A243" s="29" t="s">
         <v>60</v>
       </c>
@@ -8504,7 +8541,7 @@
       <c r="D243" s="17">
         <v>3</v>
       </c>
-      <c r="E243" s="51" t="s">
+      <c r="E243" s="50" t="s">
         <v>121</v>
       </c>
       <c r="F243" s="29" t="s">
@@ -8520,7 +8557,7 @@
       <c r="K243" s="30"/>
       <c r="L243" s="31"/>
     </row>
-    <row r="244" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A244" s="29" t="s">
         <v>60</v>
       </c>
@@ -8533,7 +8570,7 @@
       <c r="D244" s="17">
         <v>3</v>
       </c>
-      <c r="E244" s="51" t="s">
+      <c r="E244" s="50" t="s">
         <v>121</v>
       </c>
       <c r="F244" s="29" t="s">
@@ -8549,7 +8586,7 @@
       <c r="K244" s="30"/>
       <c r="L244" s="31"/>
     </row>
-    <row r="245" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A245" s="29" t="s">
         <v>60</v>
       </c>
@@ -8562,7 +8599,7 @@
       <c r="D245" s="17">
         <v>3</v>
       </c>
-      <c r="E245" s="51" t="s">
+      <c r="E245" s="50" t="s">
         <v>121</v>
       </c>
       <c r="F245" s="29" t="s">
@@ -8578,7 +8615,7 @@
       <c r="K245" s="30"/>
       <c r="L245" s="31"/>
     </row>
-    <row r="246" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A246" s="29" t="s">
         <v>60</v>
       </c>
@@ -8591,7 +8628,7 @@
       <c r="D246" s="17">
         <v>3</v>
       </c>
-      <c r="E246" s="51" t="s">
+      <c r="E246" s="50" t="s">
         <v>121</v>
       </c>
       <c r="F246" s="29" t="s">
@@ -8607,7 +8644,7 @@
       <c r="K246" s="30"/>
       <c r="L246" s="31"/>
     </row>
-    <row r="247" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A247" s="29" t="s">
         <v>60</v>
       </c>
@@ -8620,7 +8657,7 @@
       <c r="D247" s="17">
         <v>3</v>
       </c>
-      <c r="E247" s="51" t="s">
+      <c r="E247" s="50" t="s">
         <v>121</v>
       </c>
       <c r="F247" s="29" t="s">
@@ -8636,7 +8673,7 @@
       <c r="K247" s="30"/>
       <c r="L247" s="31"/>
     </row>
-    <row r="248" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A248" s="29" t="s">
         <v>60</v>
       </c>
@@ -8649,7 +8686,7 @@
       <c r="D248" s="17">
         <v>3</v>
       </c>
-      <c r="E248" s="51" t="s">
+      <c r="E248" s="50" t="s">
         <v>121</v>
       </c>
       <c r="F248" s="29" t="s">
@@ -8665,7 +8702,7 @@
       <c r="K248" s="30"/>
       <c r="L248" s="31"/>
     </row>
-    <row r="249" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A249" s="29" t="s">
         <v>60</v>
       </c>
@@ -8678,7 +8715,7 @@
       <c r="D249" s="17">
         <v>3</v>
       </c>
-      <c r="E249" s="51" t="s">
+      <c r="E249" s="50" t="s">
         <v>121</v>
       </c>
       <c r="F249" s="29" t="s">
@@ -8694,7 +8731,7 @@
       <c r="K249" s="30"/>
       <c r="L249" s="31"/>
     </row>
-    <row r="250" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A250" s="29" t="s">
         <v>60</v>
       </c>
@@ -8707,7 +8744,7 @@
       <c r="D250" s="17">
         <v>3</v>
       </c>
-      <c r="E250" s="51" t="s">
+      <c r="E250" s="50" t="s">
         <v>121</v>
       </c>
       <c r="F250" s="29" t="s">
@@ -8723,7 +8760,7 @@
       <c r="K250" s="30"/>
       <c r="L250" s="31"/>
     </row>
-    <row r="251" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A251" s="29" t="s">
         <v>60</v>
       </c>
@@ -8736,7 +8773,7 @@
       <c r="D251" s="17">
         <v>3</v>
       </c>
-      <c r="E251" s="51" t="s">
+      <c r="E251" s="50" t="s">
         <v>121</v>
       </c>
       <c r="F251" s="29" t="s">
@@ -8752,7 +8789,7 @@
       <c r="K251" s="30"/>
       <c r="L251" s="31"/>
     </row>
-    <row r="252" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A252" s="29" t="s">
         <v>60</v>
       </c>
@@ -8765,7 +8802,7 @@
       <c r="D252" s="17">
         <v>3</v>
       </c>
-      <c r="E252" s="51" t="s">
+      <c r="E252" s="50" t="s">
         <v>121</v>
       </c>
       <c r="F252" s="29" t="s">
@@ -8781,7 +8818,7 @@
       <c r="K252" s="30"/>
       <c r="L252" s="31"/>
     </row>
-    <row r="253" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A253" s="29" t="s">
         <v>60</v>
       </c>
@@ -8794,7 +8831,7 @@
       <c r="D253" s="17">
         <v>3</v>
       </c>
-      <c r="E253" s="51" t="s">
+      <c r="E253" s="50" t="s">
         <v>121</v>
       </c>
       <c r="F253" s="29" t="s">
@@ -8810,7 +8847,7 @@
       <c r="K253" s="30"/>
       <c r="L253" s="31"/>
     </row>
-    <row r="254" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A254" s="29" t="s">
         <v>60</v>
       </c>
@@ -8823,7 +8860,7 @@
       <c r="D254" s="17">
         <v>3</v>
       </c>
-      <c r="E254" s="51" t="s">
+      <c r="E254" s="50" t="s">
         <v>121</v>
       </c>
       <c r="F254" s="29" t="s">
@@ -8839,7 +8876,7 @@
       <c r="K254" s="30"/>
       <c r="L254" s="31"/>
     </row>
-    <row r="255" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A255" s="29" t="s">
         <v>60</v>
       </c>
@@ -8852,7 +8889,7 @@
       <c r="D255" s="17">
         <v>3</v>
       </c>
-      <c r="E255" s="51" t="s">
+      <c r="E255" s="50" t="s">
         <v>121</v>
       </c>
       <c r="F255" s="29" t="s">
@@ -8868,7 +8905,7 @@
       <c r="K255" s="30"/>
       <c r="L255" s="31"/>
     </row>
-    <row r="256" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A256" s="29" t="s">
         <v>60</v>
       </c>
@@ -8881,7 +8918,7 @@
       <c r="D256" s="17">
         <v>3</v>
       </c>
-      <c r="E256" s="51" t="s">
+      <c r="E256" s="50" t="s">
         <v>121</v>
       </c>
       <c r="F256" s="29" t="s">
@@ -8897,7 +8934,7 @@
       <c r="K256" s="30"/>
       <c r="L256" s="31"/>
     </row>
-    <row r="257" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A257" s="29" t="s">
         <v>60</v>
       </c>
@@ -8910,7 +8947,7 @@
       <c r="D257" s="17">
         <v>3</v>
       </c>
-      <c r="E257" s="51" t="s">
+      <c r="E257" s="50" t="s">
         <v>121</v>
       </c>
       <c r="F257" s="29" t="s">
@@ -8926,7 +8963,7 @@
       <c r="K257" s="30"/>
       <c r="L257" s="31"/>
     </row>
-    <row r="258" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A258" s="17"/>
       <c r="B258"/>
       <c r="C258" s="18"/>
@@ -8936,7 +8973,7 @@
       <c r="K258" s="30"/>
       <c r="L258" s="31"/>
     </row>
-    <row r="259" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A259" s="17" t="s">
         <v>61</v>
       </c>
@@ -8949,7 +8986,7 @@
       <c r="D259" s="17">
         <v>3</v>
       </c>
-      <c r="E259" s="51" t="s">
+      <c r="E259" s="50" t="s">
         <v>122</v>
       </c>
       <c r="F259" s="30" t="s">
@@ -8964,11 +9001,13 @@
       <c r="I259" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J259" s="46"/>
+      <c r="J259" s="30">
+        <v>500</v>
+      </c>
       <c r="K259" s="30"/>
       <c r="L259" s="31"/>
     </row>
-    <row r="260" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A260" s="29" t="s">
         <v>61</v>
       </c>
@@ -8981,7 +9020,7 @@
       <c r="D260" s="17">
         <v>3</v>
       </c>
-      <c r="E260" s="51" t="s">
+      <c r="E260" s="50" t="s">
         <v>122</v>
       </c>
       <c r="F260" s="29" t="s">
@@ -8990,13 +9029,13 @@
       <c r="G260" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H260" s="50"/>
+      <c r="H260" s="49"/>
       <c r="I260" s="30"/>
       <c r="J260" s="30"/>
       <c r="K260" s="30"/>
       <c r="L260" s="38"/>
     </row>
-    <row r="261" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A261" s="29" t="s">
         <v>61</v>
       </c>
@@ -9009,7 +9048,7 @@
       <c r="D261" s="17">
         <v>3</v>
       </c>
-      <c r="E261" s="51" t="s">
+      <c r="E261" s="50" t="s">
         <v>122</v>
       </c>
       <c r="F261" s="29" t="s">
@@ -9018,13 +9057,13 @@
       <c r="G261" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="H261" s="50"/>
+      <c r="H261" s="49"/>
       <c r="I261" s="30"/>
       <c r="J261" s="30"/>
       <c r="K261" s="30"/>
       <c r="L261" s="31"/>
     </row>
-    <row r="262" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A262" s="29" t="s">
         <v>61</v>
       </c>
@@ -9037,7 +9076,7 @@
       <c r="D262" s="17">
         <v>3</v>
       </c>
-      <c r="E262" s="51" t="s">
+      <c r="E262" s="50" t="s">
         <v>122</v>
       </c>
       <c r="F262" s="29" t="s">
@@ -9054,7 +9093,7 @@
       <c r="K262" s="30"/>
       <c r="L262" s="31"/>
     </row>
-    <row r="263" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A263" s="29" t="s">
         <v>61</v>
       </c>
@@ -9067,7 +9106,7 @@
       <c r="D263" s="17">
         <v>3</v>
       </c>
-      <c r="E263" s="51" t="s">
+      <c r="E263" s="50" t="s">
         <v>122</v>
       </c>
       <c r="F263" s="29" t="s">
@@ -9083,7 +9122,7 @@
       <c r="K263" s="30"/>
       <c r="L263" s="31"/>
     </row>
-    <row r="264" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A264" s="29" t="s">
         <v>61</v>
       </c>
@@ -9096,7 +9135,7 @@
       <c r="D264" s="17">
         <v>3</v>
       </c>
-      <c r="E264" s="51" t="s">
+      <c r="E264" s="50" t="s">
         <v>122</v>
       </c>
       <c r="F264" s="29" t="s">
@@ -9112,7 +9151,7 @@
       <c r="K264" s="30"/>
       <c r="L264" s="31"/>
     </row>
-    <row r="265" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A265" s="29" t="s">
         <v>61</v>
       </c>
@@ -9125,7 +9164,7 @@
       <c r="D265" s="17">
         <v>3</v>
       </c>
-      <c r="E265" s="51" t="s">
+      <c r="E265" s="50" t="s">
         <v>122</v>
       </c>
       <c r="F265" s="29" t="s">
@@ -9141,7 +9180,7 @@
       <c r="K265" s="30"/>
       <c r="L265" s="31"/>
     </row>
-    <row r="266" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A266" s="29" t="s">
         <v>61</v>
       </c>
@@ -9154,7 +9193,7 @@
       <c r="D266" s="17">
         <v>3</v>
       </c>
-      <c r="E266" s="51" t="s">
+      <c r="E266" s="50" t="s">
         <v>122</v>
       </c>
       <c r="F266" s="29" t="s">
@@ -9170,7 +9209,7 @@
       <c r="K266" s="30"/>
       <c r="L266" s="31"/>
     </row>
-    <row r="267" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A267" s="29" t="s">
         <v>61</v>
       </c>
@@ -9183,7 +9222,7 @@
       <c r="D267" s="17">
         <v>3</v>
       </c>
-      <c r="E267" s="51" t="s">
+      <c r="E267" s="50" t="s">
         <v>122</v>
       </c>
       <c r="F267" s="29" t="s">
@@ -9199,7 +9238,7 @@
       <c r="K267" s="30"/>
       <c r="L267" s="31"/>
     </row>
-    <row r="268" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A268" s="29" t="s">
         <v>61</v>
       </c>
@@ -9212,7 +9251,7 @@
       <c r="D268" s="17">
         <v>3</v>
       </c>
-      <c r="E268" s="51" t="s">
+      <c r="E268" s="50" t="s">
         <v>122</v>
       </c>
       <c r="F268" s="29" t="s">
@@ -9228,7 +9267,7 @@
       <c r="K268" s="30"/>
       <c r="L268" s="31"/>
     </row>
-    <row r="269" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A269" s="29" t="s">
         <v>61</v>
       </c>
@@ -9241,7 +9280,7 @@
       <c r="D269" s="17">
         <v>3</v>
       </c>
-      <c r="E269" s="51" t="s">
+      <c r="E269" s="50" t="s">
         <v>122</v>
       </c>
       <c r="F269" s="29" t="s">
@@ -9257,7 +9296,7 @@
       <c r="K269" s="30"/>
       <c r="L269" s="31"/>
     </row>
-    <row r="270" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A270" s="29" t="s">
         <v>61</v>
       </c>
@@ -9270,7 +9309,7 @@
       <c r="D270" s="17">
         <v>3</v>
       </c>
-      <c r="E270" s="51" t="s">
+      <c r="E270" s="50" t="s">
         <v>122</v>
       </c>
       <c r="F270" s="29" t="s">
@@ -9286,7 +9325,7 @@
       <c r="K270" s="30"/>
       <c r="L270" s="31"/>
     </row>
-    <row r="271" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A271" s="29" t="s">
         <v>61</v>
       </c>
@@ -9299,7 +9338,7 @@
       <c r="D271" s="17">
         <v>3</v>
       </c>
-      <c r="E271" s="51" t="s">
+      <c r="E271" s="50" t="s">
         <v>122</v>
       </c>
       <c r="F271" s="29" t="s">
@@ -9315,7 +9354,7 @@
       <c r="K271" s="30"/>
       <c r="L271" s="31"/>
     </row>
-    <row r="272" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A272" s="29" t="s">
         <v>61</v>
       </c>
@@ -9328,7 +9367,7 @@
       <c r="D272" s="17">
         <v>3</v>
       </c>
-      <c r="E272" s="51" t="s">
+      <c r="E272" s="50" t="s">
         <v>122</v>
       </c>
       <c r="F272" s="29" t="s">
@@ -9344,7 +9383,7 @@
       <c r="K272" s="30"/>
       <c r="L272" s="31"/>
     </row>
-    <row r="273" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A273" s="29" t="s">
         <v>61</v>
       </c>
@@ -9357,7 +9396,7 @@
       <c r="D273" s="17">
         <v>3</v>
       </c>
-      <c r="E273" s="51" t="s">
+      <c r="E273" s="50" t="s">
         <v>122</v>
       </c>
       <c r="F273" s="29" t="s">
@@ -9373,7 +9412,7 @@
       <c r="K273" s="30"/>
       <c r="L273" s="31"/>
     </row>
-    <row r="274" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A274" s="29" t="s">
         <v>61</v>
       </c>
@@ -9386,7 +9425,7 @@
       <c r="D274" s="17">
         <v>3</v>
       </c>
-      <c r="E274" s="51" t="s">
+      <c r="E274" s="50" t="s">
         <v>122</v>
       </c>
       <c r="F274" s="29" t="s">
@@ -9402,7 +9441,7 @@
       <c r="K274" s="30"/>
       <c r="L274" s="31"/>
     </row>
-    <row r="275" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A275" s="29" t="s">
         <v>61</v>
       </c>
@@ -9415,7 +9454,7 @@
       <c r="D275" s="17">
         <v>3</v>
       </c>
-      <c r="E275" s="51" t="s">
+      <c r="E275" s="50" t="s">
         <v>122</v>
       </c>
       <c r="F275" s="29" t="s">
@@ -9431,7 +9470,7 @@
       <c r="K275" s="30"/>
       <c r="L275" s="31"/>
     </row>
-    <row r="276" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A276" s="29" t="s">
         <v>61</v>
       </c>
@@ -9444,7 +9483,7 @@
       <c r="D276" s="17">
         <v>3</v>
       </c>
-      <c r="E276" s="51" t="s">
+      <c r="E276" s="50" t="s">
         <v>122</v>
       </c>
       <c r="F276" s="29" t="s">
@@ -9460,7 +9499,7 @@
       <c r="K276" s="30"/>
       <c r="L276" s="31"/>
     </row>
-    <row r="277" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A277" s="29" t="s">
         <v>61</v>
       </c>
@@ -9473,7 +9512,7 @@
       <c r="D277" s="17">
         <v>3</v>
       </c>
-      <c r="E277" s="51" t="s">
+      <c r="E277" s="50" t="s">
         <v>122</v>
       </c>
       <c r="F277" s="29" t="s">
@@ -9489,7 +9528,7 @@
       <c r="K277" s="30"/>
       <c r="L277" s="31"/>
     </row>
-    <row r="278" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A278" s="29" t="s">
         <v>61</v>
       </c>
@@ -9502,7 +9541,7 @@
       <c r="D278" s="17">
         <v>3</v>
       </c>
-      <c r="E278" s="51" t="s">
+      <c r="E278" s="50" t="s">
         <v>122</v>
       </c>
       <c r="F278" s="29" t="s">
@@ -9518,7 +9557,7 @@
       <c r="K278" s="30"/>
       <c r="L278" s="31"/>
     </row>
-    <row r="279" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A279" s="29" t="s">
         <v>61</v>
       </c>
@@ -9531,7 +9570,7 @@
       <c r="D279" s="17">
         <v>3</v>
       </c>
-      <c r="E279" s="51" t="s">
+      <c r="E279" s="50" t="s">
         <v>122</v>
       </c>
       <c r="F279" s="29" t="s">
@@ -9547,7 +9586,7 @@
       <c r="K279" s="30"/>
       <c r="L279" s="31"/>
     </row>
-    <row r="280" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A280" s="29" t="s">
         <v>61</v>
       </c>
@@ -9560,7 +9599,7 @@
       <c r="D280" s="17">
         <v>3</v>
       </c>
-      <c r="E280" s="51" t="s">
+      <c r="E280" s="50" t="s">
         <v>122</v>
       </c>
       <c r="F280" s="29" t="s">
@@ -9576,7 +9615,7 @@
       <c r="K280" s="30"/>
       <c r="L280" s="31"/>
     </row>
-    <row r="281" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A281" s="29" t="s">
         <v>61</v>
       </c>
@@ -9589,7 +9628,7 @@
       <c r="D281" s="17">
         <v>3</v>
       </c>
-      <c r="E281" s="51" t="s">
+      <c r="E281" s="50" t="s">
         <v>122</v>
       </c>
       <c r="F281" s="29" t="s">
@@ -9605,7 +9644,7 @@
       <c r="K281" s="30"/>
       <c r="L281" s="31"/>
     </row>
-    <row r="282" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A282" s="29" t="s">
         <v>61</v>
       </c>
@@ -9618,7 +9657,7 @@
       <c r="D282" s="17">
         <v>3</v>
       </c>
-      <c r="E282" s="51" t="s">
+      <c r="E282" s="50" t="s">
         <v>122</v>
       </c>
       <c r="F282" s="29" t="s">
@@ -9634,7 +9673,7 @@
       <c r="K282" s="30"/>
       <c r="L282" s="31"/>
     </row>
-    <row r="283" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A283" s="29" t="s">
         <v>61</v>
       </c>
@@ -9647,7 +9686,7 @@
       <c r="D283" s="17">
         <v>3</v>
       </c>
-      <c r="E283" s="51" t="s">
+      <c r="E283" s="50" t="s">
         <v>122</v>
       </c>
       <c r="F283" s="29" t="s">
@@ -9663,7 +9702,7 @@
       <c r="K283" s="30"/>
       <c r="L283" s="31"/>
     </row>
-    <row r="284" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A284" s="29" t="s">
         <v>61</v>
       </c>
@@ -9676,7 +9715,7 @@
       <c r="D284" s="17">
         <v>3</v>
       </c>
-      <c r="E284" s="51" t="s">
+      <c r="E284" s="50" t="s">
         <v>122</v>
       </c>
       <c r="F284" s="29" t="s">
@@ -9692,7 +9731,7 @@
       <c r="K284" s="30"/>
       <c r="L284" s="31"/>
     </row>
-    <row r="285" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A285" s="29" t="s">
         <v>61</v>
       </c>
@@ -9705,7 +9744,7 @@
       <c r="D285" s="17">
         <v>3</v>
       </c>
-      <c r="E285" s="51" t="s">
+      <c r="E285" s="50" t="s">
         <v>122</v>
       </c>
       <c r="F285" s="29" t="s">
@@ -9721,7 +9760,7 @@
       <c r="K285" s="30"/>
       <c r="L285" s="31"/>
     </row>
-    <row r="286" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A286" s="17"/>
       <c r="B286"/>
       <c r="C286" s="18"/>
@@ -9731,7 +9770,7 @@
       <c r="K286" s="30"/>
       <c r="L286" s="31"/>
     </row>
-    <row r="287" spans="1:12" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:12" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A287" s="17" t="s">
         <v>62</v>
       </c>
@@ -9744,7 +9783,7 @@
       <c r="D287" s="17">
         <v>3</v>
       </c>
-      <c r="E287" s="51" t="s">
+      <c r="E287" s="50" t="s">
         <v>123</v>
       </c>
       <c r="F287" s="19" t="s">
@@ -9759,11 +9798,13 @@
       <c r="I287" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J287" s="46"/>
+      <c r="J287" s="30">
+        <v>750</v>
+      </c>
       <c r="K287" s="19"/>
       <c r="L287" s="39"/>
     </row>
-    <row r="288" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A288" s="29" t="s">
         <v>62</v>
       </c>
@@ -9776,7 +9817,7 @@
       <c r="D288" s="17">
         <v>3</v>
       </c>
-      <c r="E288" s="51" t="s">
+      <c r="E288" s="50" t="s">
         <v>123</v>
       </c>
       <c r="F288" s="29" t="s">
@@ -9785,13 +9826,13 @@
       <c r="G288" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H288" s="50"/>
+      <c r="H288" s="49"/>
       <c r="I288" s="30"/>
       <c r="J288" s="30"/>
       <c r="K288" s="30"/>
       <c r="L288" s="38"/>
     </row>
-    <row r="289" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A289" s="29" t="s">
         <v>62</v>
       </c>
@@ -9804,7 +9845,7 @@
       <c r="D289" s="17">
         <v>3</v>
       </c>
-      <c r="E289" s="51" t="s">
+      <c r="E289" s="50" t="s">
         <v>123</v>
       </c>
       <c r="F289" s="29" t="s">
@@ -9813,13 +9854,13 @@
       <c r="G289" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="H289" s="50"/>
+      <c r="H289" s="49"/>
       <c r="I289" s="30"/>
       <c r="J289" s="30"/>
       <c r="K289" s="30"/>
       <c r="L289" s="31"/>
     </row>
-    <row r="290" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A290" s="29" t="s">
         <v>62</v>
       </c>
@@ -9832,7 +9873,7 @@
       <c r="D290" s="17">
         <v>3</v>
       </c>
-      <c r="E290" s="51" t="s">
+      <c r="E290" s="50" t="s">
         <v>123</v>
       </c>
       <c r="F290" s="29" t="s">
@@ -9849,7 +9890,7 @@
       <c r="K290" s="30"/>
       <c r="L290" s="31"/>
     </row>
-    <row r="291" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A291" s="29" t="s">
         <v>62</v>
       </c>
@@ -9862,7 +9903,7 @@
       <c r="D291" s="17">
         <v>3</v>
       </c>
-      <c r="E291" s="51" t="s">
+      <c r="E291" s="50" t="s">
         <v>123</v>
       </c>
       <c r="F291" s="29" t="s">
@@ -9878,7 +9919,7 @@
       <c r="K291" s="30"/>
       <c r="L291" s="31"/>
     </row>
-    <row r="292" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A292" s="29" t="s">
         <v>62</v>
       </c>
@@ -9891,7 +9932,7 @@
       <c r="D292" s="17">
         <v>3</v>
       </c>
-      <c r="E292" s="51" t="s">
+      <c r="E292" s="50" t="s">
         <v>123</v>
       </c>
       <c r="F292" s="29" t="s">
@@ -9907,7 +9948,7 @@
       <c r="K292" s="30"/>
       <c r="L292" s="31"/>
     </row>
-    <row r="293" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A293" s="29" t="s">
         <v>62</v>
       </c>
@@ -9920,7 +9961,7 @@
       <c r="D293" s="17">
         <v>3</v>
       </c>
-      <c r="E293" s="51" t="s">
+      <c r="E293" s="50" t="s">
         <v>123</v>
       </c>
       <c r="F293" s="29" t="s">
@@ -9936,7 +9977,7 @@
       <c r="K293" s="30"/>
       <c r="L293" s="31"/>
     </row>
-    <row r="294" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A294" s="29" t="s">
         <v>62</v>
       </c>
@@ -9949,7 +9990,7 @@
       <c r="D294" s="17">
         <v>3</v>
       </c>
-      <c r="E294" s="51" t="s">
+      <c r="E294" s="50" t="s">
         <v>123</v>
       </c>
       <c r="F294" s="29" t="s">
@@ -9965,7 +10006,7 @@
       <c r="K294" s="30"/>
       <c r="L294" s="31"/>
     </row>
-    <row r="295" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A295" s="29" t="s">
         <v>62</v>
       </c>
@@ -9978,7 +10019,7 @@
       <c r="D295" s="17">
         <v>3</v>
       </c>
-      <c r="E295" s="51" t="s">
+      <c r="E295" s="50" t="s">
         <v>123</v>
       </c>
       <c r="F295" s="29" t="s">
@@ -9994,7 +10035,7 @@
       <c r="K295" s="30"/>
       <c r="L295" s="31"/>
     </row>
-    <row r="296" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A296" s="29" t="s">
         <v>62</v>
       </c>
@@ -10007,7 +10048,7 @@
       <c r="D296" s="17">
         <v>3</v>
       </c>
-      <c r="E296" s="51" t="s">
+      <c r="E296" s="50" t="s">
         <v>123</v>
       </c>
       <c r="F296" s="29" t="s">
@@ -10023,7 +10064,7 @@
       <c r="K296" s="30"/>
       <c r="L296" s="31"/>
     </row>
-    <row r="297" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A297" s="29" t="s">
         <v>62</v>
       </c>
@@ -10036,7 +10077,7 @@
       <c r="D297" s="17">
         <v>3</v>
       </c>
-      <c r="E297" s="51" t="s">
+      <c r="E297" s="50" t="s">
         <v>123</v>
       </c>
       <c r="F297" s="29" t="s">
@@ -10052,7 +10093,7 @@
       <c r="K297" s="30"/>
       <c r="L297" s="31"/>
     </row>
-    <row r="298" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A298" s="29" t="s">
         <v>62</v>
       </c>
@@ -10065,7 +10106,7 @@
       <c r="D298" s="17">
         <v>3</v>
       </c>
-      <c r="E298" s="51" t="s">
+      <c r="E298" s="50" t="s">
         <v>123</v>
       </c>
       <c r="F298" s="29" t="s">
@@ -10081,7 +10122,7 @@
       <c r="K298" s="30"/>
       <c r="L298" s="31"/>
     </row>
-    <row r="299" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A299" s="29" t="s">
         <v>62</v>
       </c>
@@ -10094,7 +10135,7 @@
       <c r="D299" s="17">
         <v>3</v>
       </c>
-      <c r="E299" s="51" t="s">
+      <c r="E299" s="50" t="s">
         <v>123</v>
       </c>
       <c r="F299" s="29" t="s">
@@ -10110,7 +10151,7 @@
       <c r="K299" s="30"/>
       <c r="L299" s="31"/>
     </row>
-    <row r="300" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A300" s="29" t="s">
         <v>62</v>
       </c>
@@ -10123,7 +10164,7 @@
       <c r="D300" s="17">
         <v>3</v>
       </c>
-      <c r="E300" s="51" t="s">
+      <c r="E300" s="50" t="s">
         <v>123</v>
       </c>
       <c r="F300" s="29" t="s">
@@ -10139,7 +10180,7 @@
       <c r="K300" s="30"/>
       <c r="L300" s="31"/>
     </row>
-    <row r="301" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A301" s="29" t="s">
         <v>62</v>
       </c>
@@ -10152,7 +10193,7 @@
       <c r="D301" s="17">
         <v>3</v>
       </c>
-      <c r="E301" s="51" t="s">
+      <c r="E301" s="50" t="s">
         <v>123</v>
       </c>
       <c r="F301" s="29" t="s">
@@ -10168,7 +10209,7 @@
       <c r="K301" s="30"/>
       <c r="L301" s="31"/>
     </row>
-    <row r="302" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A302" s="29" t="s">
         <v>62</v>
       </c>
@@ -10181,7 +10222,7 @@
       <c r="D302" s="17">
         <v>3</v>
       </c>
-      <c r="E302" s="51" t="s">
+      <c r="E302" s="50" t="s">
         <v>123</v>
       </c>
       <c r="F302" s="29" t="s">
@@ -10197,7 +10238,7 @@
       <c r="K302" s="30"/>
       <c r="L302" s="31"/>
     </row>
-    <row r="303" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A303" s="29" t="s">
         <v>62</v>
       </c>
@@ -10210,7 +10251,7 @@
       <c r="D303" s="17">
         <v>3</v>
       </c>
-      <c r="E303" s="51" t="s">
+      <c r="E303" s="50" t="s">
         <v>123</v>
       </c>
       <c r="F303" s="29" t="s">
@@ -10226,7 +10267,7 @@
       <c r="K303" s="30"/>
       <c r="L303" s="31"/>
     </row>
-    <row r="304" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A304" s="29" t="s">
         <v>62</v>
       </c>
@@ -10239,7 +10280,7 @@
       <c r="D304" s="17">
         <v>3</v>
       </c>
-      <c r="E304" s="51" t="s">
+      <c r="E304" s="50" t="s">
         <v>123</v>
       </c>
       <c r="F304" s="29" t="s">
@@ -10255,7 +10296,7 @@
       <c r="K304" s="30"/>
       <c r="L304" s="31"/>
     </row>
-    <row r="305" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A305" s="29" t="s">
         <v>62</v>
       </c>
@@ -10268,7 +10309,7 @@
       <c r="D305" s="17">
         <v>3</v>
       </c>
-      <c r="E305" s="51" t="s">
+      <c r="E305" s="50" t="s">
         <v>123</v>
       </c>
       <c r="F305" s="29" t="s">
@@ -10284,7 +10325,7 @@
       <c r="K305" s="30"/>
       <c r="L305" s="31"/>
     </row>
-    <row r="306" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A306" s="29" t="s">
         <v>62</v>
       </c>
@@ -10297,7 +10338,7 @@
       <c r="D306" s="17">
         <v>3</v>
       </c>
-      <c r="E306" s="51" t="s">
+      <c r="E306" s="50" t="s">
         <v>123</v>
       </c>
       <c r="F306" s="29" t="s">
@@ -10313,7 +10354,7 @@
       <c r="K306" s="30"/>
       <c r="L306" s="31"/>
     </row>
-    <row r="307" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A307" s="29" t="s">
         <v>62</v>
       </c>
@@ -10326,7 +10367,7 @@
       <c r="D307" s="17">
         <v>3</v>
       </c>
-      <c r="E307" s="51" t="s">
+      <c r="E307" s="50" t="s">
         <v>123</v>
       </c>
       <c r="F307" s="29" t="s">
@@ -10342,7 +10383,7 @@
       <c r="K307" s="30"/>
       <c r="L307" s="31"/>
     </row>
-    <row r="308" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A308" s="29" t="s">
         <v>62</v>
       </c>
@@ -10355,7 +10396,7 @@
       <c r="D308" s="17">
         <v>3</v>
       </c>
-      <c r="E308" s="51" t="s">
+      <c r="E308" s="50" t="s">
         <v>123</v>
       </c>
       <c r="F308" s="29" t="s">
@@ -10371,7 +10412,7 @@
       <c r="K308" s="30"/>
       <c r="L308" s="31"/>
     </row>
-    <row r="309" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A309" s="29" t="s">
         <v>62</v>
       </c>
@@ -10384,7 +10425,7 @@
       <c r="D309" s="17">
         <v>3</v>
       </c>
-      <c r="E309" s="51" t="s">
+      <c r="E309" s="50" t="s">
         <v>123</v>
       </c>
       <c r="F309" s="29" t="s">
@@ -10400,7 +10441,7 @@
       <c r="K309" s="30"/>
       <c r="L309" s="31"/>
     </row>
-    <row r="310" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A310" s="29" t="s">
         <v>62</v>
       </c>
@@ -10413,7 +10454,7 @@
       <c r="D310" s="17">
         <v>3</v>
       </c>
-      <c r="E310" s="51" t="s">
+      <c r="E310" s="50" t="s">
         <v>123</v>
       </c>
       <c r="F310" s="29" t="s">
@@ -10429,7 +10470,7 @@
       <c r="K310" s="30"/>
       <c r="L310" s="31"/>
     </row>
-    <row r="311" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A311" s="29" t="s">
         <v>62</v>
       </c>
@@ -10442,7 +10483,7 @@
       <c r="D311" s="17">
         <v>3</v>
       </c>
-      <c r="E311" s="51" t="s">
+      <c r="E311" s="50" t="s">
         <v>123</v>
       </c>
       <c r="F311" s="29" t="s">
@@ -10458,7 +10499,7 @@
       <c r="K311" s="30"/>
       <c r="L311" s="31"/>
     </row>
-    <row r="312" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A312" s="29" t="s">
         <v>62</v>
       </c>
@@ -10471,7 +10512,7 @@
       <c r="D312" s="17">
         <v>3</v>
       </c>
-      <c r="E312" s="51" t="s">
+      <c r="E312" s="50" t="s">
         <v>123</v>
       </c>
       <c r="F312" s="29" t="s">
@@ -10487,7 +10528,7 @@
       <c r="K312" s="30"/>
       <c r="L312" s="31"/>
     </row>
-    <row r="313" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A313" s="29" t="s">
         <v>62</v>
       </c>
@@ -10500,7 +10541,7 @@
       <c r="D313" s="17">
         <v>3</v>
       </c>
-      <c r="E313" s="51" t="s">
+      <c r="E313" s="50" t="s">
         <v>123</v>
       </c>
       <c r="F313" s="29" t="s">
@@ -10516,7 +10557,7 @@
       <c r="K313" s="30"/>
       <c r="L313" s="31"/>
     </row>
-    <row r="314" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A314" s="17"/>
       <c r="B314"/>
       <c r="C314" s="18"/>
@@ -10526,7 +10567,7 @@
       <c r="K314" s="30"/>
       <c r="L314" s="31"/>
     </row>
-    <row r="315" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A315" s="17" t="s">
         <v>63</v>
       </c>
@@ -10539,7 +10580,7 @@
       <c r="D315" s="17">
         <v>3</v>
       </c>
-      <c r="E315" s="51" t="s">
+      <c r="E315" s="50" t="s">
         <v>124</v>
       </c>
       <c r="F315" s="30" t="s">
@@ -10554,11 +10595,13 @@
       <c r="I315" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J315" s="46"/>
+      <c r="J315" s="30">
+        <v>1000</v>
+      </c>
       <c r="K315" s="30"/>
       <c r="L315" s="39"/>
     </row>
-    <row r="316" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A316" s="29" t="s">
         <v>63</v>
       </c>
@@ -10571,7 +10614,7 @@
       <c r="D316" s="17">
         <v>3</v>
       </c>
-      <c r="E316" s="51" t="s">
+      <c r="E316" s="50" t="s">
         <v>124</v>
       </c>
       <c r="F316" s="29" t="s">
@@ -10580,13 +10623,13 @@
       <c r="G316" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H316" s="50"/>
+      <c r="H316" s="49"/>
       <c r="I316" s="30"/>
       <c r="J316" s="30"/>
       <c r="K316" s="30"/>
       <c r="L316" s="38"/>
     </row>
-    <row r="317" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A317" s="29" t="s">
         <v>63</v>
       </c>
@@ -10599,7 +10642,7 @@
       <c r="D317" s="17">
         <v>3</v>
       </c>
-      <c r="E317" s="51" t="s">
+      <c r="E317" s="50" t="s">
         <v>124</v>
       </c>
       <c r="F317" s="29" t="s">
@@ -10608,13 +10651,13 @@
       <c r="G317" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="H317" s="50"/>
+      <c r="H317" s="49"/>
       <c r="I317" s="30"/>
       <c r="J317" s="30"/>
       <c r="K317" s="30"/>
       <c r="L317" s="31"/>
     </row>
-    <row r="318" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A318" s="29" t="s">
         <v>63</v>
       </c>
@@ -10627,7 +10670,7 @@
       <c r="D318" s="17">
         <v>3</v>
       </c>
-      <c r="E318" s="51" t="s">
+      <c r="E318" s="50" t="s">
         <v>124</v>
       </c>
       <c r="F318" s="29" t="s">
@@ -10644,7 +10687,7 @@
       <c r="K318" s="30"/>
       <c r="L318" s="31"/>
     </row>
-    <row r="319" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A319" s="29" t="s">
         <v>63</v>
       </c>
@@ -10657,7 +10700,7 @@
       <c r="D319" s="17">
         <v>3</v>
       </c>
-      <c r="E319" s="51" t="s">
+      <c r="E319" s="50" t="s">
         <v>124</v>
       </c>
       <c r="F319" s="29" t="s">
@@ -10673,7 +10716,7 @@
       <c r="K319" s="30"/>
       <c r="L319" s="31"/>
     </row>
-    <row r="320" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A320" s="29" t="s">
         <v>63</v>
       </c>
@@ -10686,7 +10729,7 @@
       <c r="D320" s="17">
         <v>3</v>
       </c>
-      <c r="E320" s="51" t="s">
+      <c r="E320" s="50" t="s">
         <v>124</v>
       </c>
       <c r="F320" s="29" t="s">
@@ -10702,7 +10745,7 @@
       <c r="K320" s="30"/>
       <c r="L320" s="31"/>
     </row>
-    <row r="321" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A321" s="29" t="s">
         <v>63</v>
       </c>
@@ -10715,7 +10758,7 @@
       <c r="D321" s="17">
         <v>3</v>
       </c>
-      <c r="E321" s="51" t="s">
+      <c r="E321" s="50" t="s">
         <v>124</v>
       </c>
       <c r="F321" s="29" t="s">
@@ -10731,7 +10774,7 @@
       <c r="K321" s="30"/>
       <c r="L321" s="31"/>
     </row>
-    <row r="322" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A322" s="29" t="s">
         <v>63</v>
       </c>
@@ -10744,7 +10787,7 @@
       <c r="D322" s="17">
         <v>3</v>
       </c>
-      <c r="E322" s="51" t="s">
+      <c r="E322" s="50" t="s">
         <v>124</v>
       </c>
       <c r="F322" s="29" t="s">
@@ -10760,7 +10803,7 @@
       <c r="K322" s="30"/>
       <c r="L322" s="31"/>
     </row>
-    <row r="323" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A323" s="29" t="s">
         <v>63</v>
       </c>
@@ -10773,7 +10816,7 @@
       <c r="D323" s="17">
         <v>3</v>
       </c>
-      <c r="E323" s="51" t="s">
+      <c r="E323" s="50" t="s">
         <v>124</v>
       </c>
       <c r="F323" s="29" t="s">
@@ -10789,7 +10832,7 @@
       <c r="K323" s="30"/>
       <c r="L323" s="31"/>
     </row>
-    <row r="324" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A324" s="29" t="s">
         <v>63</v>
       </c>
@@ -10802,7 +10845,7 @@
       <c r="D324" s="17">
         <v>3</v>
       </c>
-      <c r="E324" s="51" t="s">
+      <c r="E324" s="50" t="s">
         <v>124</v>
       </c>
       <c r="F324" s="29" t="s">
@@ -10818,7 +10861,7 @@
       <c r="K324" s="30"/>
       <c r="L324" s="31"/>
     </row>
-    <row r="325" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A325" s="29" t="s">
         <v>63</v>
       </c>
@@ -10831,7 +10874,7 @@
       <c r="D325" s="17">
         <v>3</v>
       </c>
-      <c r="E325" s="51" t="s">
+      <c r="E325" s="50" t="s">
         <v>124</v>
       </c>
       <c r="F325" s="29" t="s">
@@ -10847,7 +10890,7 @@
       <c r="K325" s="30"/>
       <c r="L325" s="31"/>
     </row>
-    <row r="326" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A326" s="29" t="s">
         <v>63</v>
       </c>
@@ -10860,7 +10903,7 @@
       <c r="D326" s="17">
         <v>3</v>
       </c>
-      <c r="E326" s="51" t="s">
+      <c r="E326" s="50" t="s">
         <v>124</v>
       </c>
       <c r="F326" s="29" t="s">
@@ -10876,7 +10919,7 @@
       <c r="K326" s="30"/>
       <c r="L326" s="31"/>
     </row>
-    <row r="327" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A327" s="29" t="s">
         <v>63</v>
       </c>
@@ -10889,7 +10932,7 @@
       <c r="D327" s="17">
         <v>3</v>
       </c>
-      <c r="E327" s="51" t="s">
+      <c r="E327" s="50" t="s">
         <v>124</v>
       </c>
       <c r="F327" s="29" t="s">
@@ -10905,7 +10948,7 @@
       <c r="K327" s="30"/>
       <c r="L327" s="31"/>
     </row>
-    <row r="328" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A328" s="29" t="s">
         <v>63</v>
       </c>
@@ -10918,7 +10961,7 @@
       <c r="D328" s="17">
         <v>3</v>
       </c>
-      <c r="E328" s="51" t="s">
+      <c r="E328" s="50" t="s">
         <v>124</v>
       </c>
       <c r="F328" s="29" t="s">
@@ -10934,7 +10977,7 @@
       <c r="K328" s="30"/>
       <c r="L328" s="31"/>
     </row>
-    <row r="329" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A329" s="29" t="s">
         <v>63</v>
       </c>
@@ -10947,7 +10990,7 @@
       <c r="D329" s="17">
         <v>3</v>
       </c>
-      <c r="E329" s="51" t="s">
+      <c r="E329" s="50" t="s">
         <v>124</v>
       </c>
       <c r="F329" s="29" t="s">
@@ -10963,7 +11006,7 @@
       <c r="K329" s="30"/>
       <c r="L329" s="31"/>
     </row>
-    <row r="330" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A330" s="29" t="s">
         <v>63</v>
       </c>
@@ -10976,7 +11019,7 @@
       <c r="D330" s="17">
         <v>3</v>
       </c>
-      <c r="E330" s="51" t="s">
+      <c r="E330" s="50" t="s">
         <v>124</v>
       </c>
       <c r="F330" s="29" t="s">
@@ -10992,7 +11035,7 @@
       <c r="K330" s="30"/>
       <c r="L330" s="31"/>
     </row>
-    <row r="331" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A331" s="29" t="s">
         <v>63</v>
       </c>
@@ -11005,7 +11048,7 @@
       <c r="D331" s="17">
         <v>3</v>
       </c>
-      <c r="E331" s="51" t="s">
+      <c r="E331" s="50" t="s">
         <v>124</v>
       </c>
       <c r="F331" s="29" t="s">
@@ -11021,7 +11064,7 @@
       <c r="K331" s="30"/>
       <c r="L331" s="31"/>
     </row>
-    <row r="332" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A332" s="29" t="s">
         <v>63</v>
       </c>
@@ -11034,7 +11077,7 @@
       <c r="D332" s="17">
         <v>3</v>
       </c>
-      <c r="E332" s="51" t="s">
+      <c r="E332" s="50" t="s">
         <v>124</v>
       </c>
       <c r="F332" s="29" t="s">
@@ -11050,7 +11093,7 @@
       <c r="K332" s="30"/>
       <c r="L332" s="31"/>
     </row>
-    <row r="333" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A333" s="29" t="s">
         <v>63</v>
       </c>
@@ -11063,7 +11106,7 @@
       <c r="D333" s="17">
         <v>3</v>
       </c>
-      <c r="E333" s="51" t="s">
+      <c r="E333" s="50" t="s">
         <v>124</v>
       </c>
       <c r="F333" s="29" t="s">
@@ -11079,7 +11122,7 @@
       <c r="K333" s="30"/>
       <c r="L333" s="31"/>
     </row>
-    <row r="334" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A334" s="29" t="s">
         <v>63</v>
       </c>
@@ -11092,7 +11135,7 @@
       <c r="D334" s="17">
         <v>3</v>
       </c>
-      <c r="E334" s="51" t="s">
+      <c r="E334" s="50" t="s">
         <v>124</v>
       </c>
       <c r="F334" s="29" t="s">
@@ -11108,7 +11151,7 @@
       <c r="K334" s="30"/>
       <c r="L334" s="31"/>
     </row>
-    <row r="335" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A335" s="29" t="s">
         <v>63</v>
       </c>
@@ -11121,7 +11164,7 @@
       <c r="D335" s="17">
         <v>3</v>
       </c>
-      <c r="E335" s="51" t="s">
+      <c r="E335" s="50" t="s">
         <v>124</v>
       </c>
       <c r="F335" s="29" t="s">
@@ -11137,7 +11180,7 @@
       <c r="K335" s="30"/>
       <c r="L335" s="31"/>
     </row>
-    <row r="336" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A336" s="29" t="s">
         <v>63</v>
       </c>
@@ -11150,7 +11193,7 @@
       <c r="D336" s="17">
         <v>3</v>
       </c>
-      <c r="E336" s="51" t="s">
+      <c r="E336" s="50" t="s">
         <v>124</v>
       </c>
       <c r="F336" s="29" t="s">
@@ -11166,7 +11209,7 @@
       <c r="K336" s="30"/>
       <c r="L336" s="31"/>
     </row>
-    <row r="337" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A337" s="29" t="s">
         <v>63</v>
       </c>
@@ -11179,7 +11222,7 @@
       <c r="D337" s="17">
         <v>3</v>
       </c>
-      <c r="E337" s="51" t="s">
+      <c r="E337" s="50" t="s">
         <v>124</v>
       </c>
       <c r="F337" s="29" t="s">
@@ -11195,7 +11238,7 @@
       <c r="K337" s="30"/>
       <c r="L337" s="31"/>
     </row>
-    <row r="338" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A338" s="29" t="s">
         <v>63</v>
       </c>
@@ -11208,7 +11251,7 @@
       <c r="D338" s="17">
         <v>3</v>
       </c>
-      <c r="E338" s="51" t="s">
+      <c r="E338" s="50" t="s">
         <v>124</v>
       </c>
       <c r="F338" s="29" t="s">
@@ -11224,7 +11267,7 @@
       <c r="K338" s="30"/>
       <c r="L338" s="31"/>
     </row>
-    <row r="339" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A339" s="29" t="s">
         <v>63</v>
       </c>
@@ -11237,7 +11280,7 @@
       <c r="D339" s="17">
         <v>3</v>
       </c>
-      <c r="E339" s="51" t="s">
+      <c r="E339" s="50" t="s">
         <v>124</v>
       </c>
       <c r="F339" s="29" t="s">
@@ -11253,7 +11296,7 @@
       <c r="K339" s="30"/>
       <c r="L339" s="31"/>
     </row>
-    <row r="340" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A340" s="29" t="s">
         <v>63</v>
       </c>
@@ -11266,7 +11309,7 @@
       <c r="D340" s="17">
         <v>3</v>
       </c>
-      <c r="E340" s="51" t="s">
+      <c r="E340" s="50" t="s">
         <v>124</v>
       </c>
       <c r="F340" s="29" t="s">
@@ -11282,7 +11325,7 @@
       <c r="K340" s="30"/>
       <c r="L340" s="31"/>
     </row>
-    <row r="341" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A341" s="29" t="s">
         <v>63</v>
       </c>
@@ -11295,7 +11338,7 @@
       <c r="D341" s="17">
         <v>3</v>
       </c>
-      <c r="E341" s="51" t="s">
+      <c r="E341" s="50" t="s">
         <v>124</v>
       </c>
       <c r="F341" s="29" t="s">
@@ -11311,7 +11354,7 @@
       <c r="K341" s="30"/>
       <c r="L341" s="31"/>
     </row>
-    <row r="342" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A342" s="17"/>
       <c r="B342"/>
       <c r="C342" s="18"/>
@@ -11321,7 +11364,7 @@
       <c r="K342" s="30"/>
       <c r="L342" s="31"/>
     </row>
-    <row r="343" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A343" s="17" t="s">
         <v>64</v>
       </c>
@@ -11334,7 +11377,7 @@
       <c r="D343" s="17">
         <v>3</v>
       </c>
-      <c r="E343" s="51" t="s">
+      <c r="E343" s="50" t="s">
         <v>125</v>
       </c>
       <c r="F343" s="30" t="s">
@@ -11349,11 +11392,13 @@
       <c r="I343" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J343" s="46"/>
+      <c r="J343" s="30">
+        <v>1500</v>
+      </c>
       <c r="K343" s="30"/>
       <c r="L343" s="39"/>
     </row>
-    <row r="344" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A344" s="29" t="s">
         <v>64</v>
       </c>
@@ -11366,7 +11411,7 @@
       <c r="D344" s="17">
         <v>3</v>
       </c>
-      <c r="E344" s="51" t="s">
+      <c r="E344" s="50" t="s">
         <v>125</v>
       </c>
       <c r="F344" s="29" t="s">
@@ -11375,13 +11420,13 @@
       <c r="G344" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H344" s="50"/>
+      <c r="H344" s="49"/>
       <c r="I344" s="30"/>
       <c r="J344" s="30"/>
       <c r="K344" s="30"/>
       <c r="L344" s="38"/>
     </row>
-    <row r="345" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A345" s="29" t="s">
         <v>64</v>
       </c>
@@ -11394,7 +11439,7 @@
       <c r="D345" s="17">
         <v>3</v>
       </c>
-      <c r="E345" s="51" t="s">
+      <c r="E345" s="50" t="s">
         <v>125</v>
       </c>
       <c r="F345" s="29" t="s">
@@ -11403,13 +11448,13 @@
       <c r="G345" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="H345" s="50"/>
+      <c r="H345" s="49"/>
       <c r="I345" s="30"/>
       <c r="J345" s="30"/>
       <c r="K345" s="30"/>
       <c r="L345" s="31"/>
     </row>
-    <row r="346" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A346" s="29" t="s">
         <v>64</v>
       </c>
@@ -11422,7 +11467,7 @@
       <c r="D346" s="17">
         <v>3</v>
       </c>
-      <c r="E346" s="51" t="s">
+      <c r="E346" s="50" t="s">
         <v>125</v>
       </c>
       <c r="F346" s="29" t="s">
@@ -11439,7 +11484,7 @@
       <c r="K346" s="30"/>
       <c r="L346" s="31"/>
     </row>
-    <row r="347" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A347" s="29" t="s">
         <v>64</v>
       </c>
@@ -11452,7 +11497,7 @@
       <c r="D347" s="17">
         <v>3</v>
       </c>
-      <c r="E347" s="51" t="s">
+      <c r="E347" s="50" t="s">
         <v>125</v>
       </c>
       <c r="F347" s="29" t="s">
@@ -11468,7 +11513,7 @@
       <c r="K347" s="30"/>
       <c r="L347" s="31"/>
     </row>
-    <row r="348" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A348" s="29" t="s">
         <v>64</v>
       </c>
@@ -11481,7 +11526,7 @@
       <c r="D348" s="17">
         <v>3</v>
       </c>
-      <c r="E348" s="51" t="s">
+      <c r="E348" s="50" t="s">
         <v>125</v>
       </c>
       <c r="F348" s="29" t="s">
@@ -11497,7 +11542,7 @@
       <c r="K348" s="30"/>
       <c r="L348" s="31"/>
     </row>
-    <row r="349" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A349" s="29" t="s">
         <v>64</v>
       </c>
@@ -11510,7 +11555,7 @@
       <c r="D349" s="17">
         <v>3</v>
       </c>
-      <c r="E349" s="51" t="s">
+      <c r="E349" s="50" t="s">
         <v>125</v>
       </c>
       <c r="F349" s="29" t="s">
@@ -11526,7 +11571,7 @@
       <c r="K349" s="30"/>
       <c r="L349" s="31"/>
     </row>
-    <row r="350" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A350" s="29" t="s">
         <v>64</v>
       </c>
@@ -11539,7 +11584,7 @@
       <c r="D350" s="17">
         <v>3</v>
       </c>
-      <c r="E350" s="51" t="s">
+      <c r="E350" s="50" t="s">
         <v>125</v>
       </c>
       <c r="F350" s="29" t="s">
@@ -11555,7 +11600,7 @@
       <c r="K350" s="30"/>
       <c r="L350" s="31"/>
     </row>
-    <row r="351" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A351" s="29" t="s">
         <v>64</v>
       </c>
@@ -11568,7 +11613,7 @@
       <c r="D351" s="17">
         <v>3</v>
       </c>
-      <c r="E351" s="51" t="s">
+      <c r="E351" s="50" t="s">
         <v>125</v>
       </c>
       <c r="F351" s="29" t="s">
@@ -11584,7 +11629,7 @@
       <c r="K351" s="30"/>
       <c r="L351" s="31"/>
     </row>
-    <row r="352" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A352" s="29" t="s">
         <v>64</v>
       </c>
@@ -11597,7 +11642,7 @@
       <c r="D352" s="17">
         <v>3</v>
       </c>
-      <c r="E352" s="51" t="s">
+      <c r="E352" s="50" t="s">
         <v>125</v>
       </c>
       <c r="F352" s="29" t="s">
@@ -11613,7 +11658,7 @@
       <c r="K352" s="30"/>
       <c r="L352" s="31"/>
     </row>
-    <row r="353" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A353" s="29" t="s">
         <v>64</v>
       </c>
@@ -11626,7 +11671,7 @@
       <c r="D353" s="17">
         <v>3</v>
       </c>
-      <c r="E353" s="51" t="s">
+      <c r="E353" s="50" t="s">
         <v>125</v>
       </c>
       <c r="F353" s="29" t="s">
@@ -11642,7 +11687,7 @@
       <c r="K353" s="30"/>
       <c r="L353" s="31"/>
     </row>
-    <row r="354" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A354" s="29" t="s">
         <v>64</v>
       </c>
@@ -11655,7 +11700,7 @@
       <c r="D354" s="17">
         <v>3</v>
       </c>
-      <c r="E354" s="51" t="s">
+      <c r="E354" s="50" t="s">
         <v>125</v>
       </c>
       <c r="F354" s="29" t="s">
@@ -11671,7 +11716,7 @@
       <c r="K354" s="30"/>
       <c r="L354" s="31"/>
     </row>
-    <row r="355" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A355" s="29" t="s">
         <v>64</v>
       </c>
@@ -11684,7 +11729,7 @@
       <c r="D355" s="17">
         <v>3</v>
       </c>
-      <c r="E355" s="51" t="s">
+      <c r="E355" s="50" t="s">
         <v>125</v>
       </c>
       <c r="F355" s="29" t="s">
@@ -11700,7 +11745,7 @@
       <c r="K355" s="30"/>
       <c r="L355" s="31"/>
     </row>
-    <row r="356" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A356" s="29" t="s">
         <v>64</v>
       </c>
@@ -11713,7 +11758,7 @@
       <c r="D356" s="17">
         <v>3</v>
       </c>
-      <c r="E356" s="51" t="s">
+      <c r="E356" s="50" t="s">
         <v>125</v>
       </c>
       <c r="F356" s="29" t="s">
@@ -11729,7 +11774,7 @@
       <c r="K356" s="30"/>
       <c r="L356" s="31"/>
     </row>
-    <row r="357" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A357" s="29" t="s">
         <v>64</v>
       </c>
@@ -11742,7 +11787,7 @@
       <c r="D357" s="17">
         <v>3</v>
       </c>
-      <c r="E357" s="51" t="s">
+      <c r="E357" s="50" t="s">
         <v>125</v>
       </c>
       <c r="F357" s="29" t="s">
@@ -11758,7 +11803,7 @@
       <c r="K357" s="30"/>
       <c r="L357" s="31"/>
     </row>
-    <row r="358" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A358" s="29" t="s">
         <v>64</v>
       </c>
@@ -11771,7 +11816,7 @@
       <c r="D358" s="17">
         <v>3</v>
       </c>
-      <c r="E358" s="51" t="s">
+      <c r="E358" s="50" t="s">
         <v>125</v>
       </c>
       <c r="F358" s="29" t="s">
@@ -11787,7 +11832,7 @@
       <c r="K358" s="30"/>
       <c r="L358" s="31"/>
     </row>
-    <row r="359" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A359" s="29" t="s">
         <v>64</v>
       </c>
@@ -11800,7 +11845,7 @@
       <c r="D359" s="17">
         <v>3</v>
       </c>
-      <c r="E359" s="51" t="s">
+      <c r="E359" s="50" t="s">
         <v>125</v>
       </c>
       <c r="F359" s="29" t="s">
@@ -11816,7 +11861,7 @@
       <c r="K359" s="30"/>
       <c r="L359" s="31"/>
     </row>
-    <row r="360" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A360" s="29" t="s">
         <v>64</v>
       </c>
@@ -11829,7 +11874,7 @@
       <c r="D360" s="17">
         <v>3</v>
       </c>
-      <c r="E360" s="51" t="s">
+      <c r="E360" s="50" t="s">
         <v>125</v>
       </c>
       <c r="F360" s="29" t="s">
@@ -11845,7 +11890,7 @@
       <c r="K360" s="30"/>
       <c r="L360" s="31"/>
     </row>
-    <row r="361" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A361" s="29" t="s">
         <v>64</v>
       </c>
@@ -11858,7 +11903,7 @@
       <c r="D361" s="17">
         <v>3</v>
       </c>
-      <c r="E361" s="51" t="s">
+      <c r="E361" s="50" t="s">
         <v>125</v>
       </c>
       <c r="F361" s="29" t="s">
@@ -11874,7 +11919,7 @@
       <c r="K361" s="30"/>
       <c r="L361" s="31"/>
     </row>
-    <row r="362" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A362" s="29" t="s">
         <v>64</v>
       </c>
@@ -11887,7 +11932,7 @@
       <c r="D362" s="17">
         <v>3</v>
       </c>
-      <c r="E362" s="51" t="s">
+      <c r="E362" s="50" t="s">
         <v>125</v>
       </c>
       <c r="F362" s="29" t="s">
@@ -11903,7 +11948,7 @@
       <c r="K362" s="30"/>
       <c r="L362" s="31"/>
     </row>
-    <row r="363" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A363" s="29" t="s">
         <v>64</v>
       </c>
@@ -11916,7 +11961,7 @@
       <c r="D363" s="17">
         <v>3</v>
       </c>
-      <c r="E363" s="51" t="s">
+      <c r="E363" s="50" t="s">
         <v>125</v>
       </c>
       <c r="F363" s="29" t="s">
@@ -11932,7 +11977,7 @@
       <c r="K363" s="30"/>
       <c r="L363" s="31"/>
     </row>
-    <row r="364" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A364" s="29" t="s">
         <v>64</v>
       </c>
@@ -11945,7 +11990,7 @@
       <c r="D364" s="17">
         <v>3</v>
       </c>
-      <c r="E364" s="51" t="s">
+      <c r="E364" s="50" t="s">
         <v>125</v>
       </c>
       <c r="F364" s="29" t="s">
@@ -11961,7 +12006,7 @@
       <c r="K364" s="30"/>
       <c r="L364" s="31"/>
     </row>
-    <row r="365" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A365" s="29" t="s">
         <v>64</v>
       </c>
@@ -11974,7 +12019,7 @@
       <c r="D365" s="17">
         <v>3</v>
       </c>
-      <c r="E365" s="51" t="s">
+      <c r="E365" s="50" t="s">
         <v>125</v>
       </c>
       <c r="F365" s="29" t="s">
@@ -11990,7 +12035,7 @@
       <c r="K365" s="30"/>
       <c r="L365" s="31"/>
     </row>
-    <row r="366" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A366" s="29" t="s">
         <v>64</v>
       </c>
@@ -12003,7 +12048,7 @@
       <c r="D366" s="17">
         <v>3</v>
       </c>
-      <c r="E366" s="51" t="s">
+      <c r="E366" s="50" t="s">
         <v>125</v>
       </c>
       <c r="F366" s="29" t="s">
@@ -12019,7 +12064,7 @@
       <c r="K366" s="30"/>
       <c r="L366" s="31"/>
     </row>
-    <row r="367" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A367" s="29" t="s">
         <v>64</v>
       </c>
@@ -12032,7 +12077,7 @@
       <c r="D367" s="17">
         <v>3</v>
       </c>
-      <c r="E367" s="51" t="s">
+      <c r="E367" s="50" t="s">
         <v>125</v>
       </c>
       <c r="F367" s="29" t="s">
@@ -12048,7 +12093,7 @@
       <c r="K367" s="30"/>
       <c r="L367" s="31"/>
     </row>
-    <row r="368" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A368" s="29" t="s">
         <v>64</v>
       </c>
@@ -12061,7 +12106,7 @@
       <c r="D368" s="17">
         <v>3</v>
       </c>
-      <c r="E368" s="51" t="s">
+      <c r="E368" s="50" t="s">
         <v>125</v>
       </c>
       <c r="F368" s="29" t="s">
@@ -12077,7 +12122,7 @@
       <c r="K368" s="30"/>
       <c r="L368" s="31"/>
     </row>
-    <row r="369" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A369" s="29" t="s">
         <v>64</v>
       </c>
@@ -12090,7 +12135,7 @@
       <c r="D369" s="17">
         <v>3</v>
       </c>
-      <c r="E369" s="51" t="s">
+      <c r="E369" s="50" t="s">
         <v>125</v>
       </c>
       <c r="F369" s="29" t="s">
@@ -12106,7 +12151,7 @@
       <c r="K369" s="30"/>
       <c r="L369" s="31"/>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A370" s="17"/>
       <c r="B370" s="17"/>
       <c r="C370" s="18"/>
@@ -12116,7 +12161,7 @@
       <c r="G370" s="17"/>
       <c r="H370" s="25"/>
     </row>
-    <row r="371" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A371" s="17" t="s">
         <v>69</v>
       </c>
@@ -12130,14 +12175,14 @@
         <v>3</v>
       </c>
       <c r="E371"/>
-      <c r="F371" s="46">
-        <v>14882</v>
+      <c r="F371" s="30">
+        <v>13994</v>
       </c>
       <c r="G371" s="30"/>
       <c r="H371" s="31"/>
       <c r="I371" s="31"/>
     </row>
-    <row r="372" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
         <v>70</v>
       </c>
@@ -12151,14 +12196,14 @@
         <v>3</v>
       </c>
       <c r="E372"/>
-      <c r="F372" s="47">
-        <v>14881</v>
+      <c r="F372" s="31">
+        <v>13990</v>
       </c>
       <c r="G372" s="31"/>
       <c r="H372" s="31"/>
       <c r="I372" s="31"/>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A373" s="17"/>
       <c r="B373" s="17"/>
       <c r="C373" s="18"/>
@@ -12167,7 +12212,7 @@
       <c r="F373" s="17"/>
       <c r="G373" s="17"/>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A374" s="17"/>
       <c r="B374" s="17"/>
       <c r="C374" s="17"/>
@@ -12176,7 +12221,7 @@
       <c r="F374" s="17"/>
       <c r="G374" s="17"/>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A375" s="17"/>
       <c r="B375" s="17"/>
       <c r="C375" s="17"/>
@@ -12185,7 +12230,7 @@
       <c r="F375" s="17"/>
       <c r="G375" s="17"/>
     </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A376" s="17"/>
       <c r="B376" s="17"/>
       <c r="C376" s="17"/>
@@ -12194,7 +12239,7 @@
       <c r="F376" s="17"/>
       <c r="G376" s="17"/>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A377" s="17"/>
       <c r="B377" s="17"/>
       <c r="C377" s="17"/>
@@ -12203,7 +12248,7 @@
       <c r="F377" s="17"/>
       <c r="G377" s="17"/>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A378" s="17"/>
       <c r="B378" s="17"/>
       <c r="C378" s="17"/>
@@ -12215,10 +12260,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>